--- a/COAST_Help_interim.xlsx
+++ b/COAST_Help_interim.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="219">
   <si>
     <t>URL</t>
   </si>
@@ -651,9 +651,6 @@
     <t>Physical impairments ,Visual impairments</t>
   </si>
   <si>
-    <t>ActualResult:The page does not contain banner and main landmarks.        Expected Result: Page should contain banner and main landmarks.</t>
-  </si>
-  <si>
     <t>MEDIUM</t>
   </si>
   <si>
@@ -703,6 +700,18 @@
   </si>
   <si>
     <t>Actual Result: The keyboard focus is not provided for the interactive elements (links/buttons) in the page. Browser default focus is only available at present.</t>
+  </si>
+  <si>
+    <t>ActualResult:The page does not contain banner and main landmarks.        Expected Result: A page should contain banner, main and content-info landmarks.                ActualResult:Screenreader reads list items "Personal", "Business" and "About Us" at a time. ExpectedResult:  List items should be read one by one with tab/arrow key.                            ActualResult: The lists highlighted in the screenshot are not properly grouped, as the first element in each list is read as a heading.   ExpectedResult: The list items should be properly grouped.</t>
+  </si>
+  <si>
+    <t>Visual impairments ,Cognitive limitations</t>
+  </si>
+  <si>
+    <t>ActulResult: The graphic  links "Facebook", "Twitter","Instagram","Linkedin","Youtube","Blog" opens in another tab when accessed, but user is not notified about the change .                         ExpectedResult: User should be notified the changes about that occur on user input.</t>
+  </si>
+  <si>
+    <t>ActualResult: The two  decorative images doesnot have an alt attribute.        ExpectedReusult: Every non-text content present in the  page should have an alternate text. For decorative images alt should be null.            ActualResult: The graphic link "capitalcoast" has alternate text "Go to homeoage", instead of conveying it as a logo. ExpectedResult: There should be alternate text for an image and it should be meaningul.</t>
   </si>
 </sst>
 </file>
@@ -1240,7 +1249,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1319,14 +1328,122 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1334,83 +1451,20 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1421,7 +1475,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1430,10 +1484,34 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1442,119 +1520,56 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1853,8 +1868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C161" workbookViewId="0">
-      <selection activeCell="G165" sqref="G165:G168"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1871,34 +1886,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="38" t="s">
         <v>191</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
     </row>
     <row r="2" spans="1:9" ht="21.75" thickBot="1">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="40" t="s">
         <v>192</v>
       </c>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
     </row>
     <row r="3" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A3" s="103"/>
-      <c r="B3" s="103"/>
+      <c r="A3" s="42"/>
+      <c r="B3" s="42"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="3"/>
@@ -1908,82 +1923,82 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A4" s="104" t="s">
+      <c r="A4" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="105"/>
+      <c r="B4" s="44"/>
       <c r="C4" s="27" t="s">
         <v>190</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="106" t="s">
+      <c r="G4" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="107"/>
-      <c r="I4" s="108"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="47"/>
     </row>
     <row r="5" spans="1:9" ht="31.5" customHeight="1">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="110"/>
+      <c r="B5" s="49"/>
       <c r="C5" s="26">
         <v>43957</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="91" t="s">
+      <c r="G5" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="92"/>
+      <c r="H5" s="31"/>
       <c r="I5" s="6">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="31.5" customHeight="1">
-      <c r="A6" s="89" t="s">
+      <c r="A6" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="90"/>
+      <c r="B6" s="29"/>
       <c r="C6" s="24">
         <v>10959</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="91" t="s">
+      <c r="G6" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="92"/>
+      <c r="H6" s="31"/>
       <c r="I6" s="6">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="31.5" customHeight="1" thickBot="1">
-      <c r="A7" s="93" t="s">
+      <c r="A7" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="94"/>
+      <c r="B7" s="33"/>
       <c r="C7" s="25" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="95" t="s">
+      <c r="G7" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="96"/>
+      <c r="H7" s="35"/>
       <c r="I7" s="7">
         <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75">
-      <c r="A8" s="97"/>
-      <c r="B8" s="97"/>
+      <c r="A8" s="36"/>
+      <c r="B8" s="36"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -1993,8 +2008,8 @@
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A9" s="98"/>
-      <c r="B9" s="98"/>
+      <c r="A9" s="37"/>
+      <c r="B9" s="37"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -2004,3114 +2019,2725 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" ht="47.25" customHeight="1">
-      <c r="A10" s="85" t="s">
+      <c r="A10" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="81" t="s">
+      <c r="B10" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="81" t="s">
+      <c r="C10" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="81" t="s">
+      <c r="D10" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="87" t="s">
+      <c r="E10" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="88"/>
-      <c r="G10" s="81" t="s">
+      <c r="F10" s="75"/>
+      <c r="G10" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="81" t="s">
+      <c r="H10" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="83" t="s">
+      <c r="I10" s="52" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="31.5">
-      <c r="A11" s="86"/>
-      <c r="B11" s="82"/>
-      <c r="C11" s="82"/>
-      <c r="D11" s="82"/>
+      <c r="A11" s="73"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
       <c r="E11" s="8" t="s">
         <v>1</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="82"/>
-      <c r="H11" s="82"/>
-      <c r="I11" s="84"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="53"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="74">
+      <c r="A12" s="54">
         <v>1</v>
       </c>
-      <c r="B12" s="77" t="s">
+      <c r="B12" s="57" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="9"/>
-      <c r="D12" s="77" t="s">
+      <c r="D12" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="62" t="s">
-        <v>194</v>
-      </c>
-      <c r="F12" s="56"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="31"/>
+      <c r="E12" s="83" t="s">
+        <v>195</v>
+      </c>
+      <c r="F12" s="63" t="s">
+        <v>218</v>
+      </c>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="69"/>
     </row>
     <row r="13" spans="1:9" ht="15.75">
-      <c r="A13" s="75"/>
-      <c r="B13" s="78"/>
+      <c r="A13" s="55"/>
+      <c r="B13" s="58"/>
       <c r="C13" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="78"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="32"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="111"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="70"/>
     </row>
     <row r="14" spans="1:9" ht="47.25">
-      <c r="A14" s="75"/>
-      <c r="B14" s="78"/>
+      <c r="A14" s="55"/>
+      <c r="B14" s="58"/>
       <c r="C14" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="78"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="32"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="111"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="70"/>
     </row>
     <row r="15" spans="1:9" ht="15.75">
-      <c r="A15" s="75"/>
-      <c r="B15" s="78"/>
+      <c r="A15" s="55"/>
+      <c r="B15" s="58"/>
       <c r="C15" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="78"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="32"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="111"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="70"/>
     </row>
     <row r="16" spans="1:9" ht="15.75">
-      <c r="A16" s="75"/>
-      <c r="B16" s="78"/>
+      <c r="A16" s="55"/>
+      <c r="B16" s="58"/>
       <c r="C16" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="78"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="32"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="111"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="70"/>
     </row>
     <row r="17" spans="1:9" ht="15.75">
-      <c r="A17" s="75"/>
-      <c r="B17" s="78"/>
+      <c r="A17" s="55"/>
+      <c r="B17" s="58"/>
       <c r="C17" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="78"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="32"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="111"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="70"/>
     </row>
     <row r="18" spans="1:9" ht="15.75">
-      <c r="A18" s="75"/>
-      <c r="B18" s="78"/>
+      <c r="A18" s="55"/>
+      <c r="B18" s="58"/>
       <c r="C18" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="78"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="32"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="111"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="70"/>
     </row>
     <row r="19" spans="1:9" ht="15.75">
-      <c r="A19" s="75"/>
-      <c r="B19" s="78"/>
+      <c r="A19" s="55"/>
+      <c r="B19" s="58"/>
       <c r="C19" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="78"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="32"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="111"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="70"/>
     </row>
     <row r="20" spans="1:9" ht="15.75">
-      <c r="A20" s="75"/>
-      <c r="B20" s="78"/>
+      <c r="A20" s="55"/>
+      <c r="B20" s="58"/>
       <c r="C20" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="78"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="32"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="70"/>
     </row>
     <row r="21" spans="1:9" ht="15.75">
-      <c r="A21" s="76"/>
-      <c r="B21" s="79"/>
+      <c r="A21" s="56"/>
+      <c r="B21" s="59"/>
       <c r="C21" s="12"/>
-      <c r="D21" s="79"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="49"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="68"/>
+      <c r="H21" s="68"/>
+      <c r="I21" s="71"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="74">
+      <c r="A22" s="54">
         <v>2</v>
       </c>
-      <c r="B22" s="77" t="s">
+      <c r="B22" s="57" t="s">
         <v>28</v>
       </c>
       <c r="C22" s="9"/>
-      <c r="D22" s="77" t="s">
+      <c r="D22" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="40" t="s">
+      <c r="E22" s="79" t="s">
         <v>193</v>
       </c>
-      <c r="F22" s="63"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="59"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="76"/>
     </row>
     <row r="23" spans="1:9" ht="15.75">
-      <c r="A23" s="75"/>
-      <c r="B23" s="78"/>
+      <c r="A23" s="55"/>
+      <c r="B23" s="58"/>
       <c r="C23" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="78"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="64"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="60"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="81"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="77"/>
     </row>
     <row r="24" spans="1:9" ht="47.25">
-      <c r="A24" s="75"/>
-      <c r="B24" s="78"/>
+      <c r="A24" s="55"/>
+      <c r="B24" s="58"/>
       <c r="C24" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="78"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="64"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="60"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="77"/>
     </row>
     <row r="25" spans="1:9" ht="47.25">
-      <c r="A25" s="75"/>
-      <c r="B25" s="78"/>
+      <c r="A25" s="55"/>
+      <c r="B25" s="58"/>
       <c r="C25" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="78"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="64"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="60"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="81"/>
+      <c r="G25" s="67"/>
+      <c r="H25" s="67"/>
+      <c r="I25" s="77"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="75"/>
-      <c r="B26" s="78"/>
+      <c r="A26" s="55"/>
+      <c r="B26" s="58"/>
       <c r="C26" s="13"/>
-      <c r="D26" s="78"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="64"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="60"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="81"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="67"/>
+      <c r="I26" s="77"/>
     </row>
     <row r="27" spans="1:9" ht="31.5">
-      <c r="A27" s="76"/>
-      <c r="B27" s="79"/>
+      <c r="A27" s="56"/>
+      <c r="B27" s="59"/>
       <c r="C27" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="79"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="65"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="61"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="82"/>
+      <c r="G27" s="68"/>
+      <c r="H27" s="68"/>
+      <c r="I27" s="78"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="74">
+      <c r="A28" s="54">
         <v>3</v>
       </c>
-      <c r="B28" s="77" t="s">
+      <c r="B28" s="57" t="s">
         <v>33</v>
       </c>
       <c r="C28" s="9"/>
-      <c r="D28" s="77" t="s">
+      <c r="D28" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="E28" s="40" t="s">
+      <c r="E28" s="79" t="s">
         <v>193</v>
       </c>
-      <c r="F28" s="56"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="46"/>
-      <c r="I28" s="31"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="66"/>
+      <c r="H28" s="66"/>
+      <c r="I28" s="69"/>
     </row>
     <row r="29" spans="1:9" ht="15.75">
-      <c r="A29" s="75"/>
-      <c r="B29" s="78"/>
+      <c r="A29" s="55"/>
+      <c r="B29" s="58"/>
       <c r="C29" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="78"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="47"/>
-      <c r="H29" s="47"/>
-      <c r="I29" s="32"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="64"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="67"/>
+      <c r="I29" s="70"/>
     </row>
     <row r="30" spans="1:9" ht="47.25">
-      <c r="A30" s="76"/>
-      <c r="B30" s="79"/>
+      <c r="A30" s="56"/>
+      <c r="B30" s="59"/>
       <c r="C30" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="79"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="48"/>
-      <c r="I30" s="49"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="65"/>
+      <c r="G30" s="68"/>
+      <c r="H30" s="68"/>
+      <c r="I30" s="71"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="74">
+      <c r="A31" s="54">
         <v>4</v>
       </c>
-      <c r="B31" s="77" t="s">
+      <c r="B31" s="57" t="s">
         <v>36</v>
       </c>
       <c r="C31" s="9"/>
-      <c r="D31" s="77" t="s">
+      <c r="D31" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="E31" s="40" t="s">
+      <c r="E31" s="79" t="s">
         <v>193</v>
       </c>
-      <c r="F31" s="56"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="46"/>
-      <c r="I31" s="31"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="66"/>
+      <c r="H31" s="66"/>
+      <c r="I31" s="69"/>
     </row>
     <row r="32" spans="1:9" ht="15.75">
-      <c r="A32" s="75"/>
-      <c r="B32" s="78"/>
+      <c r="A32" s="55"/>
+      <c r="B32" s="58"/>
       <c r="C32" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D32" s="78"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="57"/>
-      <c r="G32" s="47"/>
-      <c r="H32" s="47"/>
-      <c r="I32" s="32"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="64"/>
+      <c r="G32" s="67"/>
+      <c r="H32" s="67"/>
+      <c r="I32" s="70"/>
     </row>
     <row r="33" spans="1:9" ht="63">
-      <c r="A33" s="75"/>
-      <c r="B33" s="78"/>
+      <c r="A33" s="55"/>
+      <c r="B33" s="58"/>
       <c r="C33" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D33" s="78"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="57"/>
-      <c r="G33" s="47"/>
-      <c r="H33" s="47"/>
-      <c r="I33" s="32"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="64"/>
+      <c r="G33" s="67"/>
+      <c r="H33" s="67"/>
+      <c r="I33" s="70"/>
     </row>
     <row r="34" spans="1:9" ht="15.75">
-      <c r="A34" s="76"/>
-      <c r="B34" s="79"/>
+      <c r="A34" s="56"/>
+      <c r="B34" s="59"/>
       <c r="C34" s="12"/>
-      <c r="D34" s="79"/>
-      <c r="E34" s="52"/>
-      <c r="F34" s="58"/>
-      <c r="G34" s="48"/>
-      <c r="H34" s="48"/>
-      <c r="I34" s="49"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="65"/>
+      <c r="G34" s="68"/>
+      <c r="H34" s="68"/>
+      <c r="I34" s="71"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="74">
+      <c r="A35" s="54">
         <v>5</v>
       </c>
-      <c r="B35" s="77" t="s">
+      <c r="B35" s="57" t="s">
         <v>39</v>
       </c>
       <c r="C35" s="14"/>
-      <c r="D35" s="77" t="s">
+      <c r="D35" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="E35" s="66" t="s">
+      <c r="E35" s="83" t="s">
         <v>195</v>
       </c>
-      <c r="F35" s="56" t="s">
+      <c r="F35" s="63" t="s">
+        <v>215</v>
+      </c>
+      <c r="G35" s="84"/>
+      <c r="H35" s="84" t="s">
         <v>198</v>
       </c>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="I35" s="31"/>
+      <c r="I35" s="69"/>
     </row>
     <row r="36" spans="1:9" ht="15.75">
-      <c r="A36" s="75"/>
-      <c r="B36" s="78"/>
+      <c r="A36" s="55"/>
+      <c r="B36" s="58"/>
       <c r="C36" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="D36" s="78"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="57"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="32"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="64"/>
+      <c r="G36" s="85"/>
+      <c r="H36" s="85"/>
+      <c r="I36" s="70"/>
     </row>
     <row r="37" spans="1:9" ht="47.25">
-      <c r="A37" s="76"/>
-      <c r="B37" s="79"/>
+      <c r="A37" s="56"/>
+      <c r="B37" s="59"/>
       <c r="C37" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D37" s="79"/>
-      <c r="E37" s="52"/>
-      <c r="F37" s="58"/>
-      <c r="G37" s="67"/>
-      <c r="H37" s="67"/>
-      <c r="I37" s="49"/>
+      <c r="D37" s="59"/>
+      <c r="E37" s="62"/>
+      <c r="F37" s="65"/>
+      <c r="G37" s="86"/>
+      <c r="H37" s="86"/>
+      <c r="I37" s="71"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="74">
+      <c r="A38" s="54">
         <v>6</v>
       </c>
-      <c r="B38" s="77" t="s">
+      <c r="B38" s="57" t="s">
         <v>42</v>
       </c>
       <c r="C38" s="9"/>
-      <c r="D38" s="77" t="s">
+      <c r="D38" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="E38" s="62" t="s">
+      <c r="E38" s="60" t="s">
         <v>194</v>
       </c>
-      <c r="F38" s="56"/>
-      <c r="G38" s="46"/>
-      <c r="H38" s="46"/>
-      <c r="I38" s="31"/>
+      <c r="F38" s="63"/>
+      <c r="G38" s="66"/>
+      <c r="H38" s="66"/>
+      <c r="I38" s="69"/>
     </row>
     <row r="39" spans="1:9" ht="15.75">
-      <c r="A39" s="75"/>
-      <c r="B39" s="78"/>
+      <c r="A39" s="55"/>
+      <c r="B39" s="58"/>
       <c r="C39" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D39" s="78"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="57"/>
-      <c r="G39" s="47"/>
-      <c r="H39" s="47"/>
-      <c r="I39" s="32"/>
+      <c r="D39" s="58"/>
+      <c r="E39" s="61"/>
+      <c r="F39" s="64"/>
+      <c r="G39" s="67"/>
+      <c r="H39" s="67"/>
+      <c r="I39" s="70"/>
     </row>
     <row r="40" spans="1:9" ht="47.25">
-      <c r="A40" s="75"/>
-      <c r="B40" s="78"/>
+      <c r="A40" s="55"/>
+      <c r="B40" s="58"/>
       <c r="C40" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D40" s="78"/>
-      <c r="E40" s="41"/>
-      <c r="F40" s="57"/>
-      <c r="G40" s="47"/>
-      <c r="H40" s="47"/>
-      <c r="I40" s="32"/>
+      <c r="D40" s="58"/>
+      <c r="E40" s="61"/>
+      <c r="F40" s="64"/>
+      <c r="G40" s="67"/>
+      <c r="H40" s="67"/>
+      <c r="I40" s="70"/>
     </row>
     <row r="41" spans="1:9" ht="15.75">
-      <c r="A41" s="76"/>
-      <c r="B41" s="79"/>
+      <c r="A41" s="56"/>
+      <c r="B41" s="59"/>
       <c r="C41" s="12"/>
-      <c r="D41" s="79"/>
-      <c r="E41" s="52"/>
-      <c r="F41" s="58"/>
-      <c r="G41" s="48"/>
-      <c r="H41" s="48"/>
-      <c r="I41" s="49"/>
+      <c r="D41" s="59"/>
+      <c r="E41" s="62"/>
+      <c r="F41" s="65"/>
+      <c r="G41" s="68"/>
+      <c r="H41" s="68"/>
+      <c r="I41" s="71"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="74">
+      <c r="A42" s="54">
         <v>7</v>
       </c>
-      <c r="B42" s="77" t="s">
+      <c r="B42" s="57" t="s">
         <v>45</v>
       </c>
       <c r="C42" s="9"/>
-      <c r="D42" s="77" t="s">
+      <c r="D42" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="E42" s="40" t="s">
+      <c r="E42" s="79" t="s">
         <v>193</v>
       </c>
-      <c r="F42" s="63"/>
-      <c r="G42" s="46"/>
-      <c r="H42" s="46"/>
-      <c r="I42" s="59"/>
+      <c r="F42" s="80"/>
+      <c r="G42" s="66"/>
+      <c r="H42" s="66"/>
+      <c r="I42" s="76"/>
     </row>
     <row r="43" spans="1:9" ht="15.75">
-      <c r="A43" s="75"/>
-      <c r="B43" s="78"/>
+      <c r="A43" s="55"/>
+      <c r="B43" s="58"/>
       <c r="C43" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D43" s="78"/>
-      <c r="E43" s="41"/>
-      <c r="F43" s="64"/>
-      <c r="G43" s="47"/>
-      <c r="H43" s="47"/>
-      <c r="I43" s="60"/>
+      <c r="D43" s="58"/>
+      <c r="E43" s="61"/>
+      <c r="F43" s="81"/>
+      <c r="G43" s="67"/>
+      <c r="H43" s="67"/>
+      <c r="I43" s="77"/>
     </row>
     <row r="44" spans="1:9" ht="47.25">
-      <c r="A44" s="76"/>
-      <c r="B44" s="79"/>
+      <c r="A44" s="56"/>
+      <c r="B44" s="59"/>
       <c r="C44" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D44" s="79"/>
-      <c r="E44" s="52"/>
-      <c r="F44" s="65"/>
-      <c r="G44" s="48"/>
-      <c r="H44" s="48"/>
-      <c r="I44" s="61"/>
+      <c r="D44" s="59"/>
+      <c r="E44" s="62"/>
+      <c r="F44" s="82"/>
+      <c r="G44" s="68"/>
+      <c r="H44" s="68"/>
+      <c r="I44" s="78"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="74">
+      <c r="A45" s="54">
         <v>8</v>
       </c>
-      <c r="B45" s="77" t="s">
+      <c r="B45" s="57" t="s">
         <v>48</v>
       </c>
       <c r="C45" s="9"/>
-      <c r="D45" s="77" t="s">
+      <c r="D45" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="E45" s="40" t="s">
+      <c r="E45" s="79" t="s">
         <v>193</v>
       </c>
-      <c r="F45" s="56"/>
-      <c r="G45" s="46"/>
-      <c r="H45" s="28"/>
-      <c r="I45" s="31"/>
+      <c r="F45" s="63"/>
+      <c r="G45" s="66"/>
+      <c r="H45" s="84"/>
+      <c r="I45" s="69"/>
     </row>
     <row r="46" spans="1:9" ht="15.75">
-      <c r="A46" s="75"/>
-      <c r="B46" s="78"/>
+      <c r="A46" s="55"/>
+      <c r="B46" s="58"/>
       <c r="C46" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D46" s="78"/>
-      <c r="E46" s="41"/>
-      <c r="F46" s="57"/>
-      <c r="G46" s="47"/>
-      <c r="H46" s="29"/>
-      <c r="I46" s="32"/>
+      <c r="D46" s="58"/>
+      <c r="E46" s="61"/>
+      <c r="F46" s="64"/>
+      <c r="G46" s="67"/>
+      <c r="H46" s="85"/>
+      <c r="I46" s="70"/>
     </row>
     <row r="47" spans="1:9" ht="47.25">
-      <c r="A47" s="76"/>
-      <c r="B47" s="79"/>
+      <c r="A47" s="56"/>
+      <c r="B47" s="59"/>
       <c r="C47" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D47" s="79"/>
-      <c r="E47" s="52"/>
-      <c r="F47" s="58"/>
-      <c r="G47" s="48"/>
-      <c r="H47" s="67"/>
-      <c r="I47" s="49"/>
+      <c r="D47" s="59"/>
+      <c r="E47" s="62"/>
+      <c r="F47" s="65"/>
+      <c r="G47" s="68"/>
+      <c r="H47" s="86"/>
+      <c r="I47" s="71"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="74">
+      <c r="A48" s="54">
         <v>9</v>
       </c>
-      <c r="B48" s="77" t="s">
+      <c r="B48" s="57" t="s">
         <v>51</v>
       </c>
       <c r="C48" s="9"/>
-      <c r="D48" s="77" t="s">
+      <c r="D48" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="E48" s="40" t="s">
+      <c r="E48" s="79" t="s">
         <v>193</v>
       </c>
-      <c r="F48" s="63"/>
-      <c r="G48" s="46"/>
-      <c r="H48" s="46"/>
-      <c r="I48" s="59"/>
+      <c r="F48" s="80"/>
+      <c r="G48" s="66"/>
+      <c r="H48" s="66"/>
+      <c r="I48" s="76"/>
     </row>
     <row r="49" spans="1:9" ht="15.75">
-      <c r="A49" s="75"/>
-      <c r="B49" s="78"/>
+      <c r="A49" s="55"/>
+      <c r="B49" s="58"/>
       <c r="C49" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D49" s="78"/>
-      <c r="E49" s="41"/>
-      <c r="F49" s="64"/>
-      <c r="G49" s="47"/>
-      <c r="H49" s="47"/>
-      <c r="I49" s="60"/>
+      <c r="D49" s="58"/>
+      <c r="E49" s="61"/>
+      <c r="F49" s="81"/>
+      <c r="G49" s="67"/>
+      <c r="H49" s="67"/>
+      <c r="I49" s="77"/>
     </row>
     <row r="50" spans="1:9" ht="63">
-      <c r="A50" s="76"/>
-      <c r="B50" s="79"/>
+      <c r="A50" s="56"/>
+      <c r="B50" s="59"/>
       <c r="C50" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D50" s="79"/>
-      <c r="E50" s="52"/>
-      <c r="F50" s="65"/>
-      <c r="G50" s="48"/>
-      <c r="H50" s="48"/>
-      <c r="I50" s="61"/>
+      <c r="D50" s="59"/>
+      <c r="E50" s="62"/>
+      <c r="F50" s="82"/>
+      <c r="G50" s="68"/>
+      <c r="H50" s="68"/>
+      <c r="I50" s="78"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="74">
+      <c r="A51" s="54">
         <v>10</v>
       </c>
-      <c r="B51" s="77" t="s">
+      <c r="B51" s="57" t="s">
         <v>54</v>
       </c>
       <c r="C51" s="9"/>
-      <c r="D51" s="77" t="s">
+      <c r="D51" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="E51" s="66" t="s">
+      <c r="E51" s="83" t="s">
         <v>195</v>
       </c>
-      <c r="F51" s="56" t="s">
-        <v>206</v>
-      </c>
-      <c r="G51" s="28"/>
-      <c r="H51" s="28" t="s">
+      <c r="F51" s="63" t="s">
+        <v>205</v>
+      </c>
+      <c r="G51" s="84"/>
+      <c r="H51" s="84" t="s">
         <v>196</v>
       </c>
-      <c r="I51" s="31" t="s">
+      <c r="I51" s="69" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="15.75">
-      <c r="A52" s="75"/>
-      <c r="B52" s="78"/>
+      <c r="A52" s="55"/>
+      <c r="B52" s="58"/>
       <c r="C52" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D52" s="78"/>
-      <c r="E52" s="41"/>
-      <c r="F52" s="57"/>
-      <c r="G52" s="29"/>
-      <c r="H52" s="29"/>
-      <c r="I52" s="32"/>
+      <c r="D52" s="58"/>
+      <c r="E52" s="61"/>
+      <c r="F52" s="64"/>
+      <c r="G52" s="85"/>
+      <c r="H52" s="85"/>
+      <c r="I52" s="70"/>
     </row>
     <row r="53" spans="1:9" ht="63">
-      <c r="A53" s="76"/>
-      <c r="B53" s="79"/>
+      <c r="A53" s="56"/>
+      <c r="B53" s="59"/>
       <c r="C53" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D53" s="79"/>
-      <c r="E53" s="52"/>
-      <c r="F53" s="58"/>
-      <c r="G53" s="67"/>
-      <c r="H53" s="67"/>
-      <c r="I53" s="49"/>
+      <c r="D53" s="59"/>
+      <c r="E53" s="62"/>
+      <c r="F53" s="65"/>
+      <c r="G53" s="86"/>
+      <c r="H53" s="86"/>
+      <c r="I53" s="71"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="74">
+      <c r="A54" s="54">
         <v>11</v>
       </c>
-      <c r="B54" s="77" t="s">
+      <c r="B54" s="57" t="s">
         <v>57</v>
       </c>
       <c r="C54" s="9"/>
-      <c r="D54" s="77" t="s">
+      <c r="D54" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="E54" s="62" t="s">
+      <c r="E54" s="60" t="s">
         <v>194</v>
       </c>
-      <c r="F54" s="53"/>
-      <c r="G54" s="46"/>
-      <c r="H54" s="46"/>
-      <c r="I54" s="59"/>
+      <c r="F54" s="87"/>
+      <c r="G54" s="66"/>
+      <c r="H54" s="66"/>
+      <c r="I54" s="76"/>
     </row>
     <row r="55" spans="1:9" ht="15.75">
-      <c r="A55" s="75"/>
-      <c r="B55" s="78"/>
+      <c r="A55" s="55"/>
+      <c r="B55" s="58"/>
       <c r="C55" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="D55" s="78"/>
-      <c r="E55" s="41"/>
-      <c r="F55" s="54"/>
-      <c r="G55" s="47"/>
-      <c r="H55" s="47"/>
-      <c r="I55" s="60"/>
+      <c r="D55" s="58"/>
+      <c r="E55" s="61"/>
+      <c r="F55" s="88"/>
+      <c r="G55" s="67"/>
+      <c r="H55" s="67"/>
+      <c r="I55" s="77"/>
     </row>
     <row r="56" spans="1:9" ht="78.75">
-      <c r="A56" s="76"/>
-      <c r="B56" s="79"/>
+      <c r="A56" s="56"/>
+      <c r="B56" s="59"/>
       <c r="C56" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D56" s="79"/>
-      <c r="E56" s="52"/>
-      <c r="F56" s="55"/>
-      <c r="G56" s="48"/>
-      <c r="H56" s="48"/>
-      <c r="I56" s="61"/>
+      <c r="D56" s="59"/>
+      <c r="E56" s="62"/>
+      <c r="F56" s="89"/>
+      <c r="G56" s="68"/>
+      <c r="H56" s="68"/>
+      <c r="I56" s="78"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="74">
+      <c r="A57" s="54">
         <v>12</v>
       </c>
-      <c r="B57" s="77" t="s">
+      <c r="B57" s="57" t="s">
         <v>60</v>
       </c>
       <c r="C57" s="14"/>
-      <c r="D57" s="77" t="s">
+      <c r="D57" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="E57" s="62" t="s">
+      <c r="E57" s="60" t="s">
         <v>194</v>
       </c>
-      <c r="F57" s="53"/>
-      <c r="G57" s="46"/>
-      <c r="H57" s="46"/>
-      <c r="I57" s="59"/>
+      <c r="F57" s="87"/>
+      <c r="G57" s="66"/>
+      <c r="H57" s="66"/>
+      <c r="I57" s="76"/>
     </row>
     <row r="58" spans="1:9" ht="15.75">
-      <c r="A58" s="75"/>
-      <c r="B58" s="78"/>
+      <c r="A58" s="55"/>
+      <c r="B58" s="58"/>
       <c r="C58" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="D58" s="78"/>
-      <c r="E58" s="41"/>
-      <c r="F58" s="54"/>
-      <c r="G58" s="47"/>
-      <c r="H58" s="47"/>
-      <c r="I58" s="60"/>
+      <c r="D58" s="58"/>
+      <c r="E58" s="61"/>
+      <c r="F58" s="88"/>
+      <c r="G58" s="67"/>
+      <c r="H58" s="67"/>
+      <c r="I58" s="77"/>
     </row>
     <row r="59" spans="1:9" ht="63">
-      <c r="A59" s="76"/>
-      <c r="B59" s="79"/>
+      <c r="A59" s="56"/>
+      <c r="B59" s="59"/>
       <c r="C59" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="D59" s="79"/>
-      <c r="E59" s="52"/>
-      <c r="F59" s="55"/>
-      <c r="G59" s="48"/>
-      <c r="H59" s="48"/>
-      <c r="I59" s="61"/>
+      <c r="D59" s="59"/>
+      <c r="E59" s="62"/>
+      <c r="F59" s="89"/>
+      <c r="G59" s="68"/>
+      <c r="H59" s="68"/>
+      <c r="I59" s="78"/>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="74">
+      <c r="A60" s="54">
         <v>13</v>
       </c>
-      <c r="B60" s="77" t="s">
+      <c r="B60" s="57" t="s">
         <v>63</v>
       </c>
       <c r="C60" s="9"/>
-      <c r="D60" s="77" t="s">
+      <c r="D60" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="E60" s="40" t="s">
+      <c r="E60" s="79" t="s">
         <v>193</v>
       </c>
-      <c r="F60" s="63"/>
-      <c r="G60" s="46"/>
-      <c r="H60" s="46"/>
-      <c r="I60" s="59"/>
+      <c r="F60" s="80"/>
+      <c r="G60" s="66"/>
+      <c r="H60" s="66"/>
+      <c r="I60" s="76"/>
     </row>
     <row r="61" spans="1:9" ht="15.75">
-      <c r="A61" s="75"/>
-      <c r="B61" s="78"/>
+      <c r="A61" s="55"/>
+      <c r="B61" s="58"/>
       <c r="C61" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D61" s="78"/>
-      <c r="E61" s="41"/>
-      <c r="F61" s="64"/>
-      <c r="G61" s="47"/>
-      <c r="H61" s="47"/>
-      <c r="I61" s="60"/>
+      <c r="D61" s="58"/>
+      <c r="E61" s="61"/>
+      <c r="F61" s="81"/>
+      <c r="G61" s="67"/>
+      <c r="H61" s="67"/>
+      <c r="I61" s="77"/>
     </row>
     <row r="62" spans="1:9" ht="47.25">
-      <c r="A62" s="76"/>
-      <c r="B62" s="79"/>
+      <c r="A62" s="56"/>
+      <c r="B62" s="59"/>
       <c r="C62" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="D62" s="79"/>
-      <c r="E62" s="52"/>
-      <c r="F62" s="65"/>
-      <c r="G62" s="48"/>
-      <c r="H62" s="48"/>
-      <c r="I62" s="61"/>
+      <c r="D62" s="59"/>
+      <c r="E62" s="62"/>
+      <c r="F62" s="82"/>
+      <c r="G62" s="68"/>
+      <c r="H62" s="68"/>
+      <c r="I62" s="78"/>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="74">
+      <c r="A63" s="54">
         <v>14</v>
       </c>
-      <c r="B63" s="77" t="s">
+      <c r="B63" s="57" t="s">
         <v>66</v>
       </c>
       <c r="C63" s="9"/>
-      <c r="D63" s="77" t="s">
+      <c r="D63" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="E63" s="40" t="s">
+      <c r="E63" s="79" t="s">
         <v>193</v>
       </c>
-      <c r="F63" s="63"/>
-      <c r="G63" s="46"/>
-      <c r="H63" s="46"/>
-      <c r="I63" s="59"/>
+      <c r="F63" s="80"/>
+      <c r="G63" s="66"/>
+      <c r="H63" s="66"/>
+      <c r="I63" s="76"/>
     </row>
     <row r="64" spans="1:9" ht="15.75">
-      <c r="A64" s="75"/>
-      <c r="B64" s="78"/>
+      <c r="A64" s="55"/>
+      <c r="B64" s="58"/>
       <c r="C64" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D64" s="78"/>
-      <c r="E64" s="41"/>
-      <c r="F64" s="64"/>
-      <c r="G64" s="47"/>
-      <c r="H64" s="47"/>
-      <c r="I64" s="60"/>
+      <c r="D64" s="58"/>
+      <c r="E64" s="61"/>
+      <c r="F64" s="81"/>
+      <c r="G64" s="67"/>
+      <c r="H64" s="67"/>
+      <c r="I64" s="77"/>
     </row>
     <row r="65" spans="1:9" ht="78.75">
-      <c r="A65" s="75"/>
-      <c r="B65" s="78"/>
+      <c r="A65" s="55"/>
+      <c r="B65" s="58"/>
       <c r="C65" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D65" s="78"/>
-      <c r="E65" s="41"/>
-      <c r="F65" s="64"/>
-      <c r="G65" s="47"/>
-      <c r="H65" s="47"/>
-      <c r="I65" s="60"/>
+      <c r="D65" s="58"/>
+      <c r="E65" s="61"/>
+      <c r="F65" s="81"/>
+      <c r="G65" s="67"/>
+      <c r="H65" s="67"/>
+      <c r="I65" s="77"/>
     </row>
     <row r="66" spans="1:9" ht="78.75">
-      <c r="A66" s="75"/>
-      <c r="B66" s="78"/>
+      <c r="A66" s="55"/>
+      <c r="B66" s="58"/>
       <c r="C66" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="D66" s="78"/>
-      <c r="E66" s="41"/>
-      <c r="F66" s="64"/>
-      <c r="G66" s="47"/>
-      <c r="H66" s="47"/>
-      <c r="I66" s="60"/>
+      <c r="D66" s="58"/>
+      <c r="E66" s="61"/>
+      <c r="F66" s="81"/>
+      <c r="G66" s="67"/>
+      <c r="H66" s="67"/>
+      <c r="I66" s="77"/>
     </row>
     <row r="67" spans="1:9" ht="15.75">
-      <c r="A67" s="76"/>
-      <c r="B67" s="79"/>
+      <c r="A67" s="56"/>
+      <c r="B67" s="59"/>
       <c r="C67" s="12"/>
-      <c r="D67" s="79"/>
-      <c r="E67" s="52"/>
-      <c r="F67" s="65"/>
-      <c r="G67" s="48"/>
-      <c r="H67" s="48"/>
-      <c r="I67" s="61"/>
+      <c r="D67" s="59"/>
+      <c r="E67" s="62"/>
+      <c r="F67" s="82"/>
+      <c r="G67" s="68"/>
+      <c r="H67" s="68"/>
+      <c r="I67" s="78"/>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="74">
+      <c r="A68" s="54">
         <v>15</v>
       </c>
-      <c r="B68" s="77" t="s">
+      <c r="B68" s="57" t="s">
         <v>70</v>
       </c>
       <c r="C68" s="9"/>
-      <c r="D68" s="77" t="s">
+      <c r="D68" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="E68" s="40" t="s">
+      <c r="E68" s="79" t="s">
         <v>193</v>
       </c>
-      <c r="F68" s="63"/>
-      <c r="G68" s="46"/>
-      <c r="H68" s="46"/>
-      <c r="I68" s="59"/>
+      <c r="F68" s="80"/>
+      <c r="G68" s="66"/>
+      <c r="H68" s="66"/>
+      <c r="I68" s="76"/>
     </row>
     <row r="69" spans="1:9" ht="15.75">
-      <c r="A69" s="75"/>
-      <c r="B69" s="78"/>
+      <c r="A69" s="55"/>
+      <c r="B69" s="58"/>
       <c r="C69" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="D69" s="78"/>
-      <c r="E69" s="41"/>
-      <c r="F69" s="64"/>
-      <c r="G69" s="47"/>
-      <c r="H69" s="47"/>
-      <c r="I69" s="60"/>
+      <c r="D69" s="58"/>
+      <c r="E69" s="61"/>
+      <c r="F69" s="81"/>
+      <c r="G69" s="67"/>
+      <c r="H69" s="67"/>
+      <c r="I69" s="77"/>
     </row>
     <row r="70" spans="1:9" ht="47.25">
-      <c r="A70" s="76"/>
-      <c r="B70" s="79"/>
+      <c r="A70" s="56"/>
+      <c r="B70" s="59"/>
       <c r="C70" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="D70" s="79"/>
-      <c r="E70" s="52"/>
-      <c r="F70" s="65"/>
-      <c r="G70" s="48"/>
-      <c r="H70" s="48"/>
-      <c r="I70" s="61"/>
+      <c r="D70" s="59"/>
+      <c r="E70" s="62"/>
+      <c r="F70" s="82"/>
+      <c r="G70" s="68"/>
+      <c r="H70" s="68"/>
+      <c r="I70" s="78"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="74">
+      <c r="A71" s="54">
         <v>16</v>
       </c>
-      <c r="B71" s="77" t="s">
+      <c r="B71" s="57" t="s">
         <v>73</v>
       </c>
       <c r="C71" s="9"/>
-      <c r="D71" s="77" t="s">
+      <c r="D71" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="E71" s="66" t="s">
+      <c r="E71" s="83" t="s">
         <v>195</v>
       </c>
-      <c r="F71" s="56" t="s">
+      <c r="F71" s="63" t="s">
+        <v>199</v>
+      </c>
+      <c r="G71" s="66"/>
+      <c r="H71" s="66" t="s">
+        <v>198</v>
+      </c>
+      <c r="I71" s="69" t="s">
         <v>200</v>
       </c>
-      <c r="G71" s="46"/>
-      <c r="H71" s="46" t="s">
-        <v>199</v>
-      </c>
-      <c r="I71" s="31" t="s">
-        <v>201</v>
-      </c>
     </row>
     <row r="72" spans="1:9" ht="15.75">
-      <c r="A72" s="75"/>
-      <c r="B72" s="78"/>
+      <c r="A72" s="55"/>
+      <c r="B72" s="58"/>
       <c r="C72" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="D72" s="78"/>
-      <c r="E72" s="41"/>
-      <c r="F72" s="57"/>
-      <c r="G72" s="47"/>
-      <c r="H72" s="47"/>
-      <c r="I72" s="32"/>
+      <c r="D72" s="58"/>
+      <c r="E72" s="61"/>
+      <c r="F72" s="64"/>
+      <c r="G72" s="67"/>
+      <c r="H72" s="67"/>
+      <c r="I72" s="70"/>
     </row>
     <row r="73" spans="1:9" ht="31.5">
-      <c r="A73" s="75"/>
-      <c r="B73" s="78"/>
+      <c r="A73" s="55"/>
+      <c r="B73" s="58"/>
       <c r="C73" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="D73" s="78"/>
-      <c r="E73" s="41"/>
-      <c r="F73" s="57"/>
-      <c r="G73" s="47"/>
-      <c r="H73" s="47"/>
-      <c r="I73" s="32"/>
+      <c r="D73" s="58"/>
+      <c r="E73" s="61"/>
+      <c r="F73" s="64"/>
+      <c r="G73" s="67"/>
+      <c r="H73" s="67"/>
+      <c r="I73" s="70"/>
     </row>
     <row r="74" spans="1:9" ht="15.75">
-      <c r="A74" s="76"/>
-      <c r="B74" s="79"/>
+      <c r="A74" s="56"/>
+      <c r="B74" s="59"/>
       <c r="C74" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="D74" s="79"/>
-      <c r="E74" s="52"/>
-      <c r="F74" s="58"/>
-      <c r="G74" s="48"/>
-      <c r="H74" s="48"/>
-      <c r="I74" s="49"/>
+      <c r="D74" s="59"/>
+      <c r="E74" s="62"/>
+      <c r="F74" s="65"/>
+      <c r="G74" s="68"/>
+      <c r="H74" s="68"/>
+      <c r="I74" s="71"/>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="74">
+      <c r="A75" s="54">
         <v>17</v>
       </c>
-      <c r="B75" s="77" t="s">
+      <c r="B75" s="57" t="s">
         <v>77</v>
       </c>
       <c r="C75" s="9"/>
-      <c r="D75" s="77" t="s">
+      <c r="D75" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="E75" s="62" t="s">
+      <c r="E75" s="60" t="s">
         <v>194</v>
       </c>
-      <c r="F75" s="71"/>
-      <c r="G75" s="46"/>
-      <c r="H75" s="46"/>
-      <c r="I75" s="31"/>
+      <c r="F75" s="90"/>
+      <c r="G75" s="66"/>
+      <c r="H75" s="66"/>
+      <c r="I75" s="69"/>
     </row>
     <row r="76" spans="1:9" ht="15.75">
-      <c r="A76" s="75"/>
-      <c r="B76" s="78"/>
+      <c r="A76" s="55"/>
+      <c r="B76" s="58"/>
       <c r="C76" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D76" s="78"/>
-      <c r="E76" s="41"/>
-      <c r="F76" s="72"/>
-      <c r="G76" s="47"/>
-      <c r="H76" s="47"/>
-      <c r="I76" s="32"/>
+      <c r="D76" s="58"/>
+      <c r="E76" s="61"/>
+      <c r="F76" s="91"/>
+      <c r="G76" s="67"/>
+      <c r="H76" s="67"/>
+      <c r="I76" s="70"/>
     </row>
     <row r="77" spans="1:9" ht="15.75">
-      <c r="A77" s="76"/>
-      <c r="B77" s="79"/>
+      <c r="A77" s="56"/>
+      <c r="B77" s="59"/>
       <c r="C77" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="D77" s="79"/>
-      <c r="E77" s="52"/>
-      <c r="F77" s="73"/>
-      <c r="G77" s="48"/>
-      <c r="H77" s="48"/>
-      <c r="I77" s="49"/>
+      <c r="D77" s="59"/>
+      <c r="E77" s="62"/>
+      <c r="F77" s="92"/>
+      <c r="G77" s="68"/>
+      <c r="H77" s="68"/>
+      <c r="I77" s="71"/>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="74">
+      <c r="A78" s="54">
         <v>18</v>
       </c>
-      <c r="B78" s="77" t="s">
+      <c r="B78" s="57" t="s">
         <v>80</v>
       </c>
       <c r="C78" s="9"/>
-      <c r="D78" s="77" t="s">
+      <c r="D78" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="E78" s="62" t="s">
+      <c r="E78" s="60" t="s">
         <v>194</v>
       </c>
-      <c r="F78" s="56"/>
-      <c r="G78" s="28"/>
-      <c r="H78" s="28"/>
-      <c r="I78" s="31"/>
+      <c r="F78" s="63"/>
+      <c r="G78" s="84"/>
+      <c r="H78" s="84"/>
+      <c r="I78" s="69"/>
     </row>
     <row r="79" spans="1:9" ht="15.75">
-      <c r="A79" s="75"/>
-      <c r="B79" s="78"/>
+      <c r="A79" s="55"/>
+      <c r="B79" s="58"/>
       <c r="C79" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="D79" s="78"/>
-      <c r="E79" s="41"/>
-      <c r="F79" s="57"/>
-      <c r="G79" s="29"/>
-      <c r="H79" s="29"/>
-      <c r="I79" s="32"/>
+      <c r="D79" s="58"/>
+      <c r="E79" s="61"/>
+      <c r="F79" s="64"/>
+      <c r="G79" s="85"/>
+      <c r="H79" s="85"/>
+      <c r="I79" s="70"/>
     </row>
     <row r="80" spans="1:9" ht="47.25">
-      <c r="A80" s="76"/>
-      <c r="B80" s="79"/>
+      <c r="A80" s="56"/>
+      <c r="B80" s="59"/>
       <c r="C80" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="D80" s="79"/>
-      <c r="E80" s="52"/>
-      <c r="F80" s="58"/>
-      <c r="G80" s="67"/>
-      <c r="H80" s="67"/>
-      <c r="I80" s="49"/>
+      <c r="D80" s="59"/>
+      <c r="E80" s="62"/>
+      <c r="F80" s="65"/>
+      <c r="G80" s="86"/>
+      <c r="H80" s="86"/>
+      <c r="I80" s="71"/>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="74">
+      <c r="A81" s="54">
         <v>19</v>
       </c>
-      <c r="B81" s="77" t="s">
+      <c r="B81" s="57" t="s">
         <v>83</v>
       </c>
       <c r="C81" s="14"/>
-      <c r="D81" s="77" t="s">
+      <c r="D81" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="E81" s="62" t="s">
+      <c r="E81" s="60" t="s">
         <v>194</v>
       </c>
-      <c r="F81" s="71"/>
-      <c r="G81" s="28"/>
-      <c r="H81" s="28"/>
-      <c r="I81" s="31"/>
+      <c r="F81" s="90"/>
+      <c r="G81" s="84"/>
+      <c r="H81" s="84"/>
+      <c r="I81" s="69"/>
     </row>
     <row r="82" spans="1:9" ht="15.75">
-      <c r="A82" s="75"/>
-      <c r="B82" s="78"/>
+      <c r="A82" s="55"/>
+      <c r="B82" s="58"/>
       <c r="C82" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="D82" s="78"/>
-      <c r="E82" s="41"/>
-      <c r="F82" s="72"/>
-      <c r="G82" s="29"/>
-      <c r="H82" s="29"/>
-      <c r="I82" s="32"/>
+      <c r="D82" s="58"/>
+      <c r="E82" s="61"/>
+      <c r="F82" s="91"/>
+      <c r="G82" s="85"/>
+      <c r="H82" s="85"/>
+      <c r="I82" s="70"/>
     </row>
     <row r="83" spans="1:9" ht="63">
-      <c r="A83" s="76"/>
-      <c r="B83" s="79"/>
+      <c r="A83" s="56"/>
+      <c r="B83" s="59"/>
       <c r="C83" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="D83" s="79"/>
-      <c r="E83" s="52"/>
-      <c r="F83" s="73"/>
-      <c r="G83" s="67"/>
-      <c r="H83" s="67"/>
-      <c r="I83" s="49"/>
+      <c r="D83" s="59"/>
+      <c r="E83" s="62"/>
+      <c r="F83" s="92"/>
+      <c r="G83" s="86"/>
+      <c r="H83" s="86"/>
+      <c r="I83" s="71"/>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="74">
+      <c r="A84" s="54">
         <v>20</v>
       </c>
-      <c r="B84" s="77" t="s">
+      <c r="B84" s="57" t="s">
         <v>86</v>
       </c>
       <c r="C84" s="14"/>
-      <c r="D84" s="77" t="s">
+      <c r="D84" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="E84" s="40" t="s">
+      <c r="E84" s="79" t="s">
         <v>193</v>
       </c>
-      <c r="F84" s="71"/>
-      <c r="G84" s="28"/>
-      <c r="H84" s="28"/>
-      <c r="I84" s="31"/>
+      <c r="F84" s="90"/>
+      <c r="G84" s="84"/>
+      <c r="H84" s="84"/>
+      <c r="I84" s="69"/>
     </row>
     <row r="85" spans="1:9" ht="15.75">
-      <c r="A85" s="75"/>
-      <c r="B85" s="78"/>
+      <c r="A85" s="55"/>
+      <c r="B85" s="58"/>
       <c r="C85" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="D85" s="78"/>
-      <c r="E85" s="41"/>
-      <c r="F85" s="72"/>
-      <c r="G85" s="29"/>
-      <c r="H85" s="29"/>
-      <c r="I85" s="32"/>
+      <c r="D85" s="58"/>
+      <c r="E85" s="61"/>
+      <c r="F85" s="91"/>
+      <c r="G85" s="85"/>
+      <c r="H85" s="85"/>
+      <c r="I85" s="70"/>
     </row>
     <row r="86" spans="1:9" ht="63">
-      <c r="A86" s="76"/>
-      <c r="B86" s="79"/>
+      <c r="A86" s="56"/>
+      <c r="B86" s="59"/>
       <c r="C86" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="D86" s="79"/>
-      <c r="E86" s="52"/>
-      <c r="F86" s="73"/>
-      <c r="G86" s="67"/>
-      <c r="H86" s="67"/>
-      <c r="I86" s="49"/>
+      <c r="D86" s="59"/>
+      <c r="E86" s="62"/>
+      <c r="F86" s="92"/>
+      <c r="G86" s="86"/>
+      <c r="H86" s="86"/>
+      <c r="I86" s="71"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="74">
+      <c r="A87" s="54">
         <v>21</v>
       </c>
-      <c r="B87" s="77" t="s">
+      <c r="B87" s="57" t="s">
         <v>89</v>
       </c>
       <c r="C87" s="14"/>
-      <c r="D87" s="77" t="s">
+      <c r="D87" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="E87" s="40" t="s">
+      <c r="E87" s="79" t="s">
         <v>193</v>
       </c>
-      <c r="F87" s="71"/>
-      <c r="G87" s="28"/>
-      <c r="H87" s="28"/>
-      <c r="I87" s="31"/>
+      <c r="F87" s="90"/>
+      <c r="G87" s="84"/>
+      <c r="H87" s="84"/>
+      <c r="I87" s="69"/>
     </row>
     <row r="88" spans="1:9" ht="15.75">
-      <c r="A88" s="75"/>
-      <c r="B88" s="78"/>
+      <c r="A88" s="55"/>
+      <c r="B88" s="58"/>
       <c r="C88" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="D88" s="78"/>
-      <c r="E88" s="41"/>
-      <c r="F88" s="72"/>
-      <c r="G88" s="29"/>
-      <c r="H88" s="29"/>
-      <c r="I88" s="32"/>
+      <c r="D88" s="58"/>
+      <c r="E88" s="61"/>
+      <c r="F88" s="91"/>
+      <c r="G88" s="85"/>
+      <c r="H88" s="85"/>
+      <c r="I88" s="70"/>
     </row>
     <row r="89" spans="1:9" ht="78.75">
-      <c r="A89" s="76"/>
-      <c r="B89" s="79"/>
+      <c r="A89" s="56"/>
+      <c r="B89" s="59"/>
       <c r="C89" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="D89" s="79"/>
-      <c r="E89" s="52"/>
-      <c r="F89" s="73"/>
-      <c r="G89" s="67"/>
-      <c r="H89" s="67"/>
-      <c r="I89" s="49"/>
+      <c r="D89" s="59"/>
+      <c r="E89" s="62"/>
+      <c r="F89" s="92"/>
+      <c r="G89" s="86"/>
+      <c r="H89" s="86"/>
+      <c r="I89" s="71"/>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="74">
+      <c r="A90" s="54">
         <v>22</v>
       </c>
-      <c r="B90" s="77" t="s">
+      <c r="B90" s="57" t="s">
         <v>92</v>
       </c>
       <c r="C90" s="14"/>
-      <c r="D90" s="77" t="s">
+      <c r="D90" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="E90" s="40" t="s">
+      <c r="E90" s="79" t="s">
         <v>193</v>
       </c>
-      <c r="F90" s="71"/>
-      <c r="G90" s="46"/>
-      <c r="H90" s="28"/>
-      <c r="I90" s="31"/>
+      <c r="F90" s="90"/>
+      <c r="G90" s="66"/>
+      <c r="H90" s="84"/>
+      <c r="I90" s="69"/>
     </row>
     <row r="91" spans="1:9" ht="15.75">
-      <c r="A91" s="75"/>
-      <c r="B91" s="78"/>
+      <c r="A91" s="55"/>
+      <c r="B91" s="58"/>
       <c r="C91" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="D91" s="78"/>
-      <c r="E91" s="41"/>
-      <c r="F91" s="72"/>
-      <c r="G91" s="47"/>
-      <c r="H91" s="29"/>
-      <c r="I91" s="32"/>
+      <c r="D91" s="58"/>
+      <c r="E91" s="61"/>
+      <c r="F91" s="91"/>
+      <c r="G91" s="67"/>
+      <c r="H91" s="85"/>
+      <c r="I91" s="70"/>
     </row>
     <row r="92" spans="1:9" ht="47.25">
-      <c r="A92" s="76"/>
-      <c r="B92" s="79"/>
+      <c r="A92" s="56"/>
+      <c r="B92" s="59"/>
       <c r="C92" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="D92" s="79"/>
-      <c r="E92" s="52"/>
-      <c r="F92" s="73"/>
-      <c r="G92" s="48"/>
-      <c r="H92" s="67"/>
-      <c r="I92" s="49"/>
+      <c r="D92" s="59"/>
+      <c r="E92" s="62"/>
+      <c r="F92" s="92"/>
+      <c r="G92" s="68"/>
+      <c r="H92" s="86"/>
+      <c r="I92" s="71"/>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="74">
+      <c r="A93" s="54">
         <v>23</v>
       </c>
-      <c r="B93" s="77" t="s">
+      <c r="B93" s="57" t="s">
         <v>95</v>
       </c>
       <c r="C93" s="14"/>
-      <c r="D93" s="77" t="s">
+      <c r="D93" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="E93" s="40" t="s">
+      <c r="E93" s="79" t="s">
         <v>193</v>
       </c>
-      <c r="F93" s="71"/>
-      <c r="G93" s="28"/>
-      <c r="H93" s="28"/>
-      <c r="I93" s="31"/>
+      <c r="F93" s="90"/>
+      <c r="G93" s="84"/>
+      <c r="H93" s="84"/>
+      <c r="I93" s="69"/>
     </row>
     <row r="94" spans="1:9" ht="15.75">
-      <c r="A94" s="75"/>
-      <c r="B94" s="78"/>
+      <c r="A94" s="55"/>
+      <c r="B94" s="58"/>
       <c r="C94" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="D94" s="78"/>
-      <c r="E94" s="41"/>
-      <c r="F94" s="72"/>
-      <c r="G94" s="29"/>
-      <c r="H94" s="29"/>
-      <c r="I94" s="32"/>
+      <c r="D94" s="58"/>
+      <c r="E94" s="61"/>
+      <c r="F94" s="91"/>
+      <c r="G94" s="85"/>
+      <c r="H94" s="85"/>
+      <c r="I94" s="70"/>
     </row>
     <row r="95" spans="1:9" ht="63">
-      <c r="A95" s="76"/>
-      <c r="B95" s="79"/>
+      <c r="A95" s="56"/>
+      <c r="B95" s="59"/>
       <c r="C95" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D95" s="79"/>
-      <c r="E95" s="52"/>
-      <c r="F95" s="73"/>
-      <c r="G95" s="67"/>
-      <c r="H95" s="67"/>
-      <c r="I95" s="49"/>
+      <c r="D95" s="59"/>
+      <c r="E95" s="62"/>
+      <c r="F95" s="92"/>
+      <c r="G95" s="86"/>
+      <c r="H95" s="86"/>
+      <c r="I95" s="71"/>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="74">
+      <c r="A96" s="54">
         <v>24</v>
       </c>
-      <c r="B96" s="77" t="s">
+      <c r="B96" s="57" t="s">
         <v>98</v>
       </c>
       <c r="C96" s="14"/>
-      <c r="D96" s="77" t="s">
+      <c r="D96" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="E96" s="62" t="s">
+      <c r="E96" s="60" t="s">
         <v>194</v>
       </c>
-      <c r="F96" s="68"/>
-      <c r="G96" s="46"/>
-      <c r="H96" s="46"/>
-      <c r="I96" s="59"/>
+      <c r="F96" s="93"/>
+      <c r="G96" s="66"/>
+      <c r="H96" s="66"/>
+      <c r="I96" s="76"/>
     </row>
     <row r="97" spans="1:9" ht="15.75">
-      <c r="A97" s="75"/>
-      <c r="B97" s="78"/>
+      <c r="A97" s="55"/>
+      <c r="B97" s="58"/>
       <c r="C97" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="D97" s="78"/>
-      <c r="E97" s="41"/>
-      <c r="F97" s="69"/>
-      <c r="G97" s="47"/>
-      <c r="H97" s="47"/>
-      <c r="I97" s="60"/>
+      <c r="D97" s="58"/>
+      <c r="E97" s="61"/>
+      <c r="F97" s="94"/>
+      <c r="G97" s="67"/>
+      <c r="H97" s="67"/>
+      <c r="I97" s="77"/>
     </row>
     <row r="98" spans="1:9" ht="31.5">
-      <c r="A98" s="76"/>
-      <c r="B98" s="79"/>
+      <c r="A98" s="56"/>
+      <c r="B98" s="59"/>
       <c r="C98" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="D98" s="79"/>
-      <c r="E98" s="52"/>
-      <c r="F98" s="70"/>
-      <c r="G98" s="48"/>
-      <c r="H98" s="48"/>
-      <c r="I98" s="61"/>
+      <c r="D98" s="59"/>
+      <c r="E98" s="62"/>
+      <c r="F98" s="95"/>
+      <c r="G98" s="68"/>
+      <c r="H98" s="68"/>
+      <c r="I98" s="78"/>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="74">
+      <c r="A99" s="54">
         <v>25</v>
       </c>
-      <c r="B99" s="77">
+      <c r="B99" s="57">
         <v>3.2</v>
       </c>
       <c r="C99" s="9"/>
-      <c r="D99" s="77" t="s">
+      <c r="D99" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="E99" s="62" t="s">
+      <c r="E99" s="60" t="s">
         <v>194</v>
       </c>
-      <c r="F99" s="56"/>
-      <c r="G99" s="46"/>
-      <c r="H99" s="46"/>
-      <c r="I99" s="59"/>
+      <c r="F99" s="63"/>
+      <c r="G99" s="66"/>
+      <c r="H99" s="66"/>
+      <c r="I99" s="76"/>
     </row>
     <row r="100" spans="1:9" ht="15.75">
-      <c r="A100" s="75"/>
-      <c r="B100" s="78"/>
+      <c r="A100" s="55"/>
+      <c r="B100" s="58"/>
       <c r="C100" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="D100" s="78"/>
-      <c r="E100" s="41"/>
-      <c r="F100" s="57"/>
-      <c r="G100" s="47"/>
-      <c r="H100" s="47"/>
-      <c r="I100" s="60"/>
+      <c r="D100" s="58"/>
+      <c r="E100" s="61"/>
+      <c r="F100" s="64"/>
+      <c r="G100" s="67"/>
+      <c r="H100" s="67"/>
+      <c r="I100" s="77"/>
     </row>
     <row r="101" spans="1:9" ht="31.5">
-      <c r="A101" s="76"/>
-      <c r="B101" s="79"/>
+      <c r="A101" s="56"/>
+      <c r="B101" s="59"/>
       <c r="C101" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="D101" s="79"/>
-      <c r="E101" s="52"/>
-      <c r="F101" s="58"/>
-      <c r="G101" s="48"/>
-      <c r="H101" s="48"/>
-      <c r="I101" s="61"/>
-    </row>
-    <row r="102" spans="1:9">
-      <c r="A102" s="74">
+      <c r="D101" s="59"/>
+      <c r="E101" s="62"/>
+      <c r="F101" s="65"/>
+      <c r="G101" s="68"/>
+      <c r="H101" s="68"/>
+      <c r="I101" s="78"/>
+    </row>
+    <row r="102" spans="1:9" ht="15" customHeight="1">
+      <c r="A102" s="54">
         <v>26</v>
       </c>
-      <c r="B102" s="77" t="s">
+      <c r="B102" s="57" t="s">
         <v>103</v>
       </c>
       <c r="C102" s="9"/>
-      <c r="D102" s="77" t="s">
+      <c r="D102" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="E102" s="62" t="s">
-        <v>194</v>
-      </c>
-      <c r="F102" s="56"/>
-      <c r="G102" s="28"/>
-      <c r="H102" s="28"/>
-      <c r="I102" s="31"/>
+      <c r="E102" s="83" t="s">
+        <v>195</v>
+      </c>
+      <c r="F102" s="63" t="s">
+        <v>217</v>
+      </c>
+      <c r="G102" s="84"/>
+      <c r="H102" s="84" t="s">
+        <v>196</v>
+      </c>
+      <c r="I102" s="69" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="103" spans="1:9" ht="15.75">
-      <c r="A103" s="75"/>
-      <c r="B103" s="78"/>
+      <c r="A103" s="55"/>
+      <c r="B103" s="58"/>
       <c r="C103" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="D103" s="78"/>
-      <c r="E103" s="41"/>
-      <c r="F103" s="57"/>
-      <c r="G103" s="29"/>
-      <c r="H103" s="29"/>
-      <c r="I103" s="32"/>
+      <c r="D103" s="58"/>
+      <c r="E103" s="111"/>
+      <c r="F103" s="64"/>
+      <c r="G103" s="85"/>
+      <c r="H103" s="85"/>
+      <c r="I103" s="70"/>
     </row>
     <row r="104" spans="1:9" ht="47.25">
-      <c r="A104" s="76"/>
-      <c r="B104" s="79"/>
+      <c r="A104" s="56"/>
+      <c r="B104" s="59"/>
       <c r="C104" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="D104" s="79"/>
-      <c r="E104" s="52"/>
-      <c r="F104" s="58"/>
-      <c r="G104" s="67"/>
-      <c r="H104" s="67"/>
-      <c r="I104" s="49"/>
+      <c r="D104" s="59"/>
+      <c r="E104" s="112"/>
+      <c r="F104" s="65"/>
+      <c r="G104" s="86"/>
+      <c r="H104" s="86"/>
+      <c r="I104" s="71"/>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="74">
+      <c r="A105" s="54">
         <v>27</v>
       </c>
-      <c r="B105" s="77" t="s">
+      <c r="B105" s="57" t="s">
         <v>106</v>
       </c>
       <c r="C105" s="9"/>
-      <c r="D105" s="77" t="s">
+      <c r="D105" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="E105" s="40" t="s">
+      <c r="E105" s="79" t="s">
         <v>193</v>
       </c>
-      <c r="F105" s="56"/>
-      <c r="G105" s="46"/>
-      <c r="H105" s="46"/>
-      <c r="I105" s="31"/>
+      <c r="F105" s="63"/>
+      <c r="G105" s="66"/>
+      <c r="H105" s="66"/>
+      <c r="I105" s="69"/>
     </row>
     <row r="106" spans="1:9" ht="15.75">
-      <c r="A106" s="75"/>
-      <c r="B106" s="78"/>
+      <c r="A106" s="55"/>
+      <c r="B106" s="58"/>
       <c r="C106" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="D106" s="78"/>
-      <c r="E106" s="41"/>
-      <c r="F106" s="57"/>
-      <c r="G106" s="47"/>
-      <c r="H106" s="47"/>
-      <c r="I106" s="32"/>
+      <c r="D106" s="58"/>
+      <c r="E106" s="61"/>
+      <c r="F106" s="64"/>
+      <c r="G106" s="67"/>
+      <c r="H106" s="67"/>
+      <c r="I106" s="70"/>
     </row>
     <row r="107" spans="1:9" ht="31.5">
-      <c r="A107" s="76"/>
-      <c r="B107" s="79"/>
+      <c r="A107" s="56"/>
+      <c r="B107" s="59"/>
       <c r="C107" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="D107" s="79"/>
-      <c r="E107" s="52"/>
-      <c r="F107" s="58"/>
-      <c r="G107" s="48"/>
-      <c r="H107" s="48"/>
-      <c r="I107" s="49"/>
+      <c r="D107" s="59"/>
+      <c r="E107" s="62"/>
+      <c r="F107" s="65"/>
+      <c r="G107" s="68"/>
+      <c r="H107" s="68"/>
+      <c r="I107" s="71"/>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="74">
+      <c r="A108" s="54">
         <v>28</v>
       </c>
-      <c r="B108" s="77" t="s">
+      <c r="B108" s="57" t="s">
         <v>109</v>
       </c>
       <c r="C108" s="9"/>
-      <c r="D108" s="77" t="s">
+      <c r="D108" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="E108" s="40" t="s">
+      <c r="E108" s="79" t="s">
         <v>193</v>
       </c>
-      <c r="F108" s="56"/>
-      <c r="G108" s="28"/>
-      <c r="H108" s="28"/>
-      <c r="I108" s="31"/>
+      <c r="F108" s="63"/>
+      <c r="G108" s="84"/>
+      <c r="H108" s="84"/>
+      <c r="I108" s="69"/>
     </row>
     <row r="109" spans="1:9" ht="15.75">
-      <c r="A109" s="75"/>
-      <c r="B109" s="78"/>
+      <c r="A109" s="55"/>
+      <c r="B109" s="58"/>
       <c r="C109" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="D109" s="78"/>
-      <c r="E109" s="41"/>
-      <c r="F109" s="57"/>
-      <c r="G109" s="29"/>
-      <c r="H109" s="29"/>
-      <c r="I109" s="32"/>
+      <c r="D109" s="58"/>
+      <c r="E109" s="61"/>
+      <c r="F109" s="64"/>
+      <c r="G109" s="85"/>
+      <c r="H109" s="85"/>
+      <c r="I109" s="70"/>
     </row>
     <row r="110" spans="1:9" ht="15.75">
-      <c r="A110" s="76"/>
-      <c r="B110" s="79"/>
+      <c r="A110" s="56"/>
+      <c r="B110" s="59"/>
       <c r="C110" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="D110" s="79"/>
-      <c r="E110" s="52"/>
-      <c r="F110" s="58"/>
-      <c r="G110" s="67"/>
-      <c r="H110" s="67"/>
-      <c r="I110" s="49"/>
+      <c r="D110" s="59"/>
+      <c r="E110" s="62"/>
+      <c r="F110" s="65"/>
+      <c r="G110" s="86"/>
+      <c r="H110" s="86"/>
+      <c r="I110" s="71"/>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="74">
+      <c r="A111" s="54">
         <v>29</v>
       </c>
-      <c r="B111" s="77" t="s">
+      <c r="B111" s="57" t="s">
         <v>112</v>
       </c>
       <c r="C111" s="9"/>
-      <c r="D111" s="77" t="s">
+      <c r="D111" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="E111" s="66" t="s">
+      <c r="E111" s="83" t="s">
         <v>195</v>
       </c>
-      <c r="F111" s="71" t="s">
-        <v>207</v>
-      </c>
-      <c r="G111" s="28"/>
-      <c r="H111" s="46"/>
-      <c r="I111" s="59"/>
+      <c r="F111" s="90" t="s">
+        <v>206</v>
+      </c>
+      <c r="G111" s="84"/>
+      <c r="H111" s="84"/>
+      <c r="I111" s="69"/>
     </row>
     <row r="112" spans="1:9" ht="15.75">
-      <c r="A112" s="75"/>
-      <c r="B112" s="78"/>
+      <c r="A112" s="55"/>
+      <c r="B112" s="58"/>
       <c r="C112" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="D112" s="78"/>
-      <c r="E112" s="41"/>
-      <c r="F112" s="72"/>
-      <c r="G112" s="29"/>
-      <c r="H112" s="47"/>
-      <c r="I112" s="60"/>
+      <c r="D112" s="58"/>
+      <c r="E112" s="61"/>
+      <c r="F112" s="91"/>
+      <c r="G112" s="85"/>
+      <c r="H112" s="85"/>
+      <c r="I112" s="70"/>
     </row>
     <row r="113" spans="1:9" ht="63">
-      <c r="A113" s="76"/>
-      <c r="B113" s="79"/>
+      <c r="A113" s="56"/>
+      <c r="B113" s="59"/>
       <c r="C113" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="D113" s="79"/>
-      <c r="E113" s="52"/>
-      <c r="F113" s="73"/>
-      <c r="G113" s="67"/>
-      <c r="H113" s="48"/>
-      <c r="I113" s="61"/>
+      <c r="D113" s="59"/>
+      <c r="E113" s="62"/>
+      <c r="F113" s="92"/>
+      <c r="G113" s="86"/>
+      <c r="H113" s="86"/>
+      <c r="I113" s="71"/>
     </row>
     <row r="114" spans="1:9">
-      <c r="A114" s="74">
+      <c r="A114" s="54">
         <v>30</v>
       </c>
-      <c r="B114" s="77" t="s">
+      <c r="B114" s="57" t="s">
         <v>115</v>
       </c>
       <c r="C114" s="9"/>
-      <c r="D114" s="77" t="s">
+      <c r="D114" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="E114" s="66" t="s">
+      <c r="E114" s="83" t="s">
         <v>195</v>
       </c>
-      <c r="F114" s="43" t="s">
-        <v>205</v>
-      </c>
-      <c r="G114" s="28"/>
-      <c r="H114" s="28" t="s">
+      <c r="F114" s="102" t="s">
+        <v>204</v>
+      </c>
+      <c r="G114" s="84"/>
+      <c r="H114" s="84" t="s">
         <v>196</v>
       </c>
-      <c r="I114" s="31" t="s">
-        <v>202</v>
+      <c r="I114" s="69" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="15.75">
-      <c r="A115" s="75"/>
-      <c r="B115" s="78"/>
+      <c r="A115" s="55"/>
+      <c r="B115" s="58"/>
       <c r="C115" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="D115" s="78"/>
-      <c r="E115" s="41"/>
-      <c r="F115" s="44"/>
-      <c r="G115" s="29"/>
-      <c r="H115" s="29"/>
-      <c r="I115" s="32"/>
+      <c r="D115" s="58"/>
+      <c r="E115" s="61"/>
+      <c r="F115" s="103"/>
+      <c r="G115" s="85"/>
+      <c r="H115" s="85"/>
+      <c r="I115" s="70"/>
     </row>
     <row r="116" spans="1:9" ht="94.5">
-      <c r="A116" s="76"/>
-      <c r="B116" s="79"/>
+      <c r="A116" s="56"/>
+      <c r="B116" s="59"/>
       <c r="C116" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="D116" s="79"/>
-      <c r="E116" s="52"/>
-      <c r="F116" s="80"/>
-      <c r="G116" s="67"/>
-      <c r="H116" s="67"/>
-      <c r="I116" s="49"/>
+      <c r="D116" s="59"/>
+      <c r="E116" s="62"/>
+      <c r="F116" s="104"/>
+      <c r="G116" s="86"/>
+      <c r="H116" s="86"/>
+      <c r="I116" s="71"/>
     </row>
     <row r="117" spans="1:9">
-      <c r="A117" s="34">
+      <c r="A117" s="96">
         <v>31</v>
       </c>
-      <c r="B117" s="37" t="s">
+      <c r="B117" s="99" t="s">
         <v>118</v>
       </c>
       <c r="C117" s="17"/>
-      <c r="D117" s="37" t="s">
+      <c r="D117" s="99" t="s">
         <v>121</v>
       </c>
-      <c r="E117" s="40" t="s">
+      <c r="E117" s="79" t="s">
         <v>193</v>
       </c>
-      <c r="F117" s="63"/>
-      <c r="G117" s="46"/>
-      <c r="H117" s="46"/>
-      <c r="I117" s="59"/>
+      <c r="F117" s="80"/>
+      <c r="G117" s="66"/>
+      <c r="H117" s="66"/>
+      <c r="I117" s="76"/>
     </row>
     <row r="118" spans="1:9" ht="15.75">
-      <c r="A118" s="35"/>
-      <c r="B118" s="38"/>
+      <c r="A118" s="97"/>
+      <c r="B118" s="100"/>
       <c r="C118" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="D118" s="38"/>
-      <c r="E118" s="41"/>
-      <c r="F118" s="64"/>
-      <c r="G118" s="47"/>
-      <c r="H118" s="47"/>
-      <c r="I118" s="60"/>
+      <c r="D118" s="100"/>
+      <c r="E118" s="61"/>
+      <c r="F118" s="81"/>
+      <c r="G118" s="67"/>
+      <c r="H118" s="67"/>
+      <c r="I118" s="77"/>
     </row>
     <row r="119" spans="1:9" ht="31.5">
-      <c r="A119" s="35"/>
-      <c r="B119" s="38"/>
+      <c r="A119" s="97"/>
+      <c r="B119" s="100"/>
       <c r="C119" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="D119" s="38"/>
-      <c r="E119" s="41"/>
-      <c r="F119" s="64"/>
-      <c r="G119" s="47"/>
-      <c r="H119" s="47"/>
-      <c r="I119" s="60"/>
+      <c r="D119" s="100"/>
+      <c r="E119" s="61"/>
+      <c r="F119" s="81"/>
+      <c r="G119" s="67"/>
+      <c r="H119" s="67"/>
+      <c r="I119" s="77"/>
     </row>
     <row r="120" spans="1:9" ht="15.75">
-      <c r="A120" s="50"/>
-      <c r="B120" s="51"/>
+      <c r="A120" s="98"/>
+      <c r="B120" s="101"/>
       <c r="C120" s="20"/>
-      <c r="D120" s="51"/>
-      <c r="E120" s="52"/>
-      <c r="F120" s="65"/>
-      <c r="G120" s="48"/>
-      <c r="H120" s="48"/>
-      <c r="I120" s="61"/>
+      <c r="D120" s="101"/>
+      <c r="E120" s="62"/>
+      <c r="F120" s="82"/>
+      <c r="G120" s="68"/>
+      <c r="H120" s="68"/>
+      <c r="I120" s="78"/>
     </row>
     <row r="121" spans="1:9">
-      <c r="A121" s="34">
+      <c r="A121" s="96">
         <v>32</v>
       </c>
-      <c r="B121" s="37" t="s">
+      <c r="B121" s="99" t="s">
         <v>122</v>
       </c>
       <c r="C121" s="17"/>
-      <c r="D121" s="37" t="s">
+      <c r="D121" s="99" t="s">
         <v>121</v>
       </c>
-      <c r="E121" s="40" t="s">
+      <c r="E121" s="79" t="s">
         <v>193</v>
       </c>
-      <c r="F121" s="56"/>
-      <c r="G121" s="46"/>
-      <c r="H121" s="46"/>
-      <c r="I121" s="59"/>
+      <c r="F121" s="63"/>
+      <c r="G121" s="66"/>
+      <c r="H121" s="66"/>
+      <c r="I121" s="76"/>
     </row>
     <row r="122" spans="1:9" ht="15.75">
-      <c r="A122" s="35"/>
-      <c r="B122" s="38"/>
+      <c r="A122" s="97"/>
+      <c r="B122" s="100"/>
       <c r="C122" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="D122" s="38"/>
-      <c r="E122" s="41"/>
-      <c r="F122" s="57"/>
-      <c r="G122" s="47"/>
-      <c r="H122" s="47"/>
-      <c r="I122" s="60"/>
+      <c r="D122" s="100"/>
+      <c r="E122" s="61"/>
+      <c r="F122" s="64"/>
+      <c r="G122" s="67"/>
+      <c r="H122" s="67"/>
+      <c r="I122" s="77"/>
     </row>
     <row r="123" spans="1:9" ht="31.5">
-      <c r="A123" s="50"/>
-      <c r="B123" s="51"/>
+      <c r="A123" s="98"/>
+      <c r="B123" s="101"/>
       <c r="C123" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="D123" s="51"/>
-      <c r="E123" s="52"/>
-      <c r="F123" s="58"/>
-      <c r="G123" s="48"/>
-      <c r="H123" s="48"/>
-      <c r="I123" s="61"/>
+      <c r="D123" s="101"/>
+      <c r="E123" s="62"/>
+      <c r="F123" s="65"/>
+      <c r="G123" s="68"/>
+      <c r="H123" s="68"/>
+      <c r="I123" s="78"/>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="34">
+      <c r="A124" s="96">
         <v>33</v>
       </c>
-      <c r="B124" s="37" t="s">
+      <c r="B124" s="99" t="s">
         <v>125</v>
       </c>
       <c r="C124" s="17"/>
-      <c r="D124" s="37" t="s">
+      <c r="D124" s="99" t="s">
         <v>128</v>
       </c>
-      <c r="E124" s="40" t="s">
+      <c r="E124" s="79" t="s">
         <v>193</v>
       </c>
-      <c r="F124" s="53"/>
-      <c r="G124" s="46"/>
-      <c r="H124" s="46"/>
-      <c r="I124" s="59"/>
+      <c r="F124" s="87"/>
+      <c r="G124" s="66"/>
+      <c r="H124" s="66"/>
+      <c r="I124" s="76"/>
     </row>
     <row r="125" spans="1:9" ht="15.75">
-      <c r="A125" s="35"/>
-      <c r="B125" s="38"/>
+      <c r="A125" s="97"/>
+      <c r="B125" s="100"/>
       <c r="C125" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="D125" s="38"/>
-      <c r="E125" s="41"/>
-      <c r="F125" s="54"/>
-      <c r="G125" s="47"/>
-      <c r="H125" s="47"/>
-      <c r="I125" s="60"/>
+      <c r="D125" s="100"/>
+      <c r="E125" s="61"/>
+      <c r="F125" s="88"/>
+      <c r="G125" s="67"/>
+      <c r="H125" s="67"/>
+      <c r="I125" s="77"/>
     </row>
     <row r="126" spans="1:9" ht="31.5">
-      <c r="A126" s="50"/>
-      <c r="B126" s="51"/>
+      <c r="A126" s="98"/>
+      <c r="B126" s="101"/>
       <c r="C126" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="D126" s="51"/>
-      <c r="E126" s="52"/>
-      <c r="F126" s="55"/>
-      <c r="G126" s="48"/>
-      <c r="H126" s="48"/>
-      <c r="I126" s="61"/>
+      <c r="D126" s="101"/>
+      <c r="E126" s="62"/>
+      <c r="F126" s="89"/>
+      <c r="G126" s="68"/>
+      <c r="H126" s="68"/>
+      <c r="I126" s="78"/>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="34">
+      <c r="A127" s="96">
         <v>34</v>
       </c>
-      <c r="B127" s="37" t="s">
+      <c r="B127" s="99" t="s">
         <v>129</v>
       </c>
       <c r="C127" s="17"/>
-      <c r="D127" s="37" t="s">
+      <c r="D127" s="99" t="s">
         <v>128</v>
       </c>
-      <c r="E127" s="40" t="s">
+      <c r="E127" s="79" t="s">
         <v>193</v>
       </c>
-      <c r="F127" s="63"/>
-      <c r="G127" s="46"/>
-      <c r="H127" s="46"/>
-      <c r="I127" s="59"/>
+      <c r="F127" s="80"/>
+      <c r="G127" s="66"/>
+      <c r="H127" s="66"/>
+      <c r="I127" s="76"/>
     </row>
     <row r="128" spans="1:9" ht="15.75">
-      <c r="A128" s="35"/>
-      <c r="B128" s="38"/>
+      <c r="A128" s="97"/>
+      <c r="B128" s="100"/>
       <c r="C128" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="D128" s="38"/>
-      <c r="E128" s="41"/>
-      <c r="F128" s="64"/>
-      <c r="G128" s="47"/>
-      <c r="H128" s="47"/>
-      <c r="I128" s="60"/>
+      <c r="D128" s="100"/>
+      <c r="E128" s="61"/>
+      <c r="F128" s="81"/>
+      <c r="G128" s="67"/>
+      <c r="H128" s="67"/>
+      <c r="I128" s="77"/>
     </row>
     <row r="129" spans="1:9" ht="31.5">
-      <c r="A129" s="50"/>
-      <c r="B129" s="51"/>
+      <c r="A129" s="98"/>
+      <c r="B129" s="101"/>
       <c r="C129" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="D129" s="51"/>
-      <c r="E129" s="52"/>
-      <c r="F129" s="65"/>
-      <c r="G129" s="48"/>
-      <c r="H129" s="48"/>
-      <c r="I129" s="61"/>
+      <c r="D129" s="101"/>
+      <c r="E129" s="62"/>
+      <c r="F129" s="82"/>
+      <c r="G129" s="68"/>
+      <c r="H129" s="68"/>
+      <c r="I129" s="78"/>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="34">
+      <c r="A130" s="96">
         <v>35</v>
       </c>
-      <c r="B130" s="37" t="s">
+      <c r="B130" s="99" t="s">
         <v>132</v>
       </c>
       <c r="C130" s="17"/>
-      <c r="D130" s="37" t="s">
+      <c r="D130" s="99" t="s">
         <v>121</v>
       </c>
-      <c r="E130" s="66" t="s">
+      <c r="E130" s="83" t="s">
         <v>195</v>
       </c>
-      <c r="F130" s="71" t="s">
+      <c r="F130" s="90" t="s">
+        <v>207</v>
+      </c>
+      <c r="G130" s="66"/>
+      <c r="H130" s="66" t="s">
+        <v>196</v>
+      </c>
+      <c r="I130" s="69" t="s">
         <v>208</v>
       </c>
-      <c r="G130" s="46"/>
-      <c r="H130" s="46" t="s">
-        <v>196</v>
-      </c>
-      <c r="I130" s="31" t="s">
-        <v>209</v>
-      </c>
     </row>
     <row r="131" spans="1:9" ht="15.75">
-      <c r="A131" s="35"/>
-      <c r="B131" s="38"/>
+      <c r="A131" s="97"/>
+      <c r="B131" s="100"/>
       <c r="C131" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="D131" s="38"/>
-      <c r="E131" s="41"/>
-      <c r="F131" s="72"/>
-      <c r="G131" s="47"/>
-      <c r="H131" s="47"/>
-      <c r="I131" s="32"/>
+      <c r="D131" s="100"/>
+      <c r="E131" s="61"/>
+      <c r="F131" s="91"/>
+      <c r="G131" s="67"/>
+      <c r="H131" s="67"/>
+      <c r="I131" s="70"/>
     </row>
     <row r="132" spans="1:9" ht="31.5">
-      <c r="A132" s="50"/>
-      <c r="B132" s="51"/>
+      <c r="A132" s="98"/>
+      <c r="B132" s="101"/>
       <c r="C132" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="D132" s="51"/>
-      <c r="E132" s="52"/>
-      <c r="F132" s="73"/>
-      <c r="G132" s="48"/>
-      <c r="H132" s="48"/>
-      <c r="I132" s="49"/>
+      <c r="D132" s="101"/>
+      <c r="E132" s="62"/>
+      <c r="F132" s="92"/>
+      <c r="G132" s="68"/>
+      <c r="H132" s="68"/>
+      <c r="I132" s="71"/>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="34">
+      <c r="A133" s="96">
         <v>36</v>
       </c>
-      <c r="B133" s="37" t="s">
+      <c r="B133" s="99" t="s">
         <v>135</v>
       </c>
       <c r="C133" s="17"/>
-      <c r="D133" s="37" t="s">
+      <c r="D133" s="99" t="s">
         <v>121</v>
       </c>
-      <c r="E133" s="66" t="s">
+      <c r="E133" s="83" t="s">
         <v>195</v>
       </c>
-      <c r="F133" s="56" t="s">
+      <c r="F133" s="63" t="s">
+        <v>209</v>
+      </c>
+      <c r="G133" s="66"/>
+      <c r="H133" s="84" t="s">
+        <v>202</v>
+      </c>
+      <c r="I133" s="76" t="s">
         <v>210</v>
       </c>
-      <c r="G133" s="46"/>
-      <c r="H133" s="28" t="s">
-        <v>203</v>
-      </c>
-      <c r="I133" s="59" t="s">
-        <v>211</v>
-      </c>
     </row>
     <row r="134" spans="1:9" ht="15.75">
-      <c r="A134" s="35"/>
-      <c r="B134" s="38"/>
+      <c r="A134" s="97"/>
+      <c r="B134" s="100"/>
       <c r="C134" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="D134" s="38"/>
-      <c r="E134" s="41"/>
-      <c r="F134" s="57"/>
-      <c r="G134" s="47"/>
-      <c r="H134" s="29"/>
-      <c r="I134" s="60"/>
+      <c r="D134" s="100"/>
+      <c r="E134" s="61"/>
+      <c r="F134" s="64"/>
+      <c r="G134" s="67"/>
+      <c r="H134" s="85"/>
+      <c r="I134" s="77"/>
     </row>
     <row r="135" spans="1:9" ht="47.25">
-      <c r="A135" s="50"/>
-      <c r="B135" s="51"/>
+      <c r="A135" s="98"/>
+      <c r="B135" s="101"/>
       <c r="C135" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="D135" s="51"/>
-      <c r="E135" s="52"/>
-      <c r="F135" s="58"/>
-      <c r="G135" s="48"/>
-      <c r="H135" s="67"/>
-      <c r="I135" s="61"/>
+      <c r="D135" s="101"/>
+      <c r="E135" s="62"/>
+      <c r="F135" s="65"/>
+      <c r="G135" s="68"/>
+      <c r="H135" s="86"/>
+      <c r="I135" s="78"/>
     </row>
     <row r="136" spans="1:9">
-      <c r="A136" s="34">
+      <c r="A136" s="96">
         <v>37</v>
       </c>
-      <c r="B136" s="37" t="s">
+      <c r="B136" s="99" t="s">
         <v>138</v>
       </c>
       <c r="C136" s="17"/>
-      <c r="D136" s="37" t="s">
+      <c r="D136" s="99" t="s">
         <v>121</v>
       </c>
-      <c r="E136" s="66" t="s">
+      <c r="E136" s="83" t="s">
         <v>195</v>
       </c>
-      <c r="F136" s="56" t="s">
-        <v>204</v>
-      </c>
-      <c r="G136" s="28"/>
-      <c r="H136" s="28" t="s">
+      <c r="F136" s="63" t="s">
         <v>203</v>
       </c>
-      <c r="I136" s="31" t="s">
+      <c r="G136" s="84"/>
+      <c r="H136" s="84" t="s">
         <v>202</v>
       </c>
+      <c r="I136" s="69" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="137" spans="1:9" ht="15.75">
-      <c r="A137" s="35"/>
-      <c r="B137" s="38"/>
+      <c r="A137" s="97"/>
+      <c r="B137" s="100"/>
       <c r="C137" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="D137" s="38"/>
-      <c r="E137" s="41"/>
-      <c r="F137" s="57"/>
-      <c r="G137" s="29"/>
-      <c r="H137" s="29"/>
-      <c r="I137" s="32"/>
+      <c r="D137" s="100"/>
+      <c r="E137" s="61"/>
+      <c r="F137" s="64"/>
+      <c r="G137" s="85"/>
+      <c r="H137" s="85"/>
+      <c r="I137" s="70"/>
     </row>
     <row r="138" spans="1:9" ht="47.25">
-      <c r="A138" s="35"/>
-      <c r="B138" s="38"/>
+      <c r="A138" s="97"/>
+      <c r="B138" s="100"/>
       <c r="C138" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="D138" s="38"/>
-      <c r="E138" s="41"/>
-      <c r="F138" s="57"/>
-      <c r="G138" s="29"/>
-      <c r="H138" s="29"/>
-      <c r="I138" s="32"/>
+      <c r="D138" s="100"/>
+      <c r="E138" s="61"/>
+      <c r="F138" s="64"/>
+      <c r="G138" s="85"/>
+      <c r="H138" s="85"/>
+      <c r="I138" s="70"/>
     </row>
     <row r="139" spans="1:9">
-      <c r="A139" s="35"/>
-      <c r="B139" s="38"/>
+      <c r="A139" s="97"/>
+      <c r="B139" s="100"/>
       <c r="C139" s="21"/>
-      <c r="D139" s="38"/>
-      <c r="E139" s="41"/>
-      <c r="F139" s="57"/>
-      <c r="G139" s="29"/>
-      <c r="H139" s="29"/>
-      <c r="I139" s="32"/>
+      <c r="D139" s="100"/>
+      <c r="E139" s="61"/>
+      <c r="F139" s="64"/>
+      <c r="G139" s="85"/>
+      <c r="H139" s="85"/>
+      <c r="I139" s="70"/>
     </row>
     <row r="140" spans="1:9" ht="31.5">
-      <c r="A140" s="50"/>
-      <c r="B140" s="51"/>
+      <c r="A140" s="98"/>
+      <c r="B140" s="101"/>
       <c r="C140" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="D140" s="51"/>
-      <c r="E140" s="52"/>
-      <c r="F140" s="58"/>
-      <c r="G140" s="67"/>
-      <c r="H140" s="67"/>
-      <c r="I140" s="49"/>
+      <c r="D140" s="101"/>
+      <c r="E140" s="62"/>
+      <c r="F140" s="65"/>
+      <c r="G140" s="86"/>
+      <c r="H140" s="86"/>
+      <c r="I140" s="71"/>
     </row>
     <row r="141" spans="1:9">
-      <c r="A141" s="34">
+      <c r="A141" s="96">
         <v>38</v>
       </c>
-      <c r="B141" s="37" t="s">
+      <c r="B141" s="99" t="s">
         <v>142</v>
       </c>
       <c r="C141" s="17"/>
-      <c r="D141" s="37" t="s">
+      <c r="D141" s="99" t="s">
         <v>121</v>
       </c>
-      <c r="E141" s="40" t="s">
+      <c r="E141" s="79" t="s">
         <v>193</v>
       </c>
-      <c r="F141" s="56"/>
-      <c r="G141" s="46"/>
-      <c r="H141" s="28"/>
-      <c r="I141" s="59"/>
+      <c r="F141" s="63"/>
+      <c r="G141" s="66"/>
+      <c r="H141" s="84"/>
+      <c r="I141" s="76"/>
     </row>
     <row r="142" spans="1:9" ht="15.75">
-      <c r="A142" s="35"/>
-      <c r="B142" s="38"/>
+      <c r="A142" s="97"/>
+      <c r="B142" s="100"/>
       <c r="C142" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="D142" s="38"/>
-      <c r="E142" s="41"/>
-      <c r="F142" s="57"/>
-      <c r="G142" s="47"/>
-      <c r="H142" s="29"/>
-      <c r="I142" s="60"/>
+      <c r="D142" s="100"/>
+      <c r="E142" s="61"/>
+      <c r="F142" s="64"/>
+      <c r="G142" s="67"/>
+      <c r="H142" s="85"/>
+      <c r="I142" s="77"/>
     </row>
     <row r="143" spans="1:9" ht="78.75">
-      <c r="A143" s="35"/>
-      <c r="B143" s="38"/>
+      <c r="A143" s="97"/>
+      <c r="B143" s="100"/>
       <c r="C143" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="D143" s="38"/>
-      <c r="E143" s="41"/>
-      <c r="F143" s="57"/>
-      <c r="G143" s="47"/>
-      <c r="H143" s="29"/>
-      <c r="I143" s="60"/>
+      <c r="D143" s="100"/>
+      <c r="E143" s="61"/>
+      <c r="F143" s="64"/>
+      <c r="G143" s="67"/>
+      <c r="H143" s="85"/>
+      <c r="I143" s="77"/>
     </row>
     <row r="144" spans="1:9" ht="47.25">
-      <c r="A144" s="50"/>
-      <c r="B144" s="51"/>
+      <c r="A144" s="98"/>
+      <c r="B144" s="101"/>
       <c r="C144" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="D144" s="51"/>
-      <c r="E144" s="52"/>
-      <c r="F144" s="58"/>
-      <c r="G144" s="48"/>
-      <c r="H144" s="67"/>
-      <c r="I144" s="61"/>
+      <c r="D144" s="101"/>
+      <c r="E144" s="62"/>
+      <c r="F144" s="65"/>
+      <c r="G144" s="68"/>
+      <c r="H144" s="86"/>
+      <c r="I144" s="78"/>
     </row>
     <row r="145" spans="1:9">
-      <c r="A145" s="34">
+      <c r="A145" s="96">
         <v>39</v>
       </c>
-      <c r="B145" s="37" t="s">
+      <c r="B145" s="99" t="s">
         <v>146</v>
       </c>
       <c r="C145" s="17"/>
-      <c r="D145" s="37" t="s">
+      <c r="D145" s="99" t="s">
         <v>121</v>
       </c>
-      <c r="E145" s="66" t="s">
+      <c r="E145" s="83" t="s">
         <v>195</v>
       </c>
-      <c r="F145" s="56" t="s">
+      <c r="F145" s="63" t="s">
+        <v>211</v>
+      </c>
+      <c r="G145" s="66"/>
+      <c r="H145" s="66" t="s">
+        <v>202</v>
+      </c>
+      <c r="I145" s="69" t="s">
         <v>212</v>
       </c>
-      <c r="G145" s="46"/>
-      <c r="H145" s="46" t="s">
-        <v>203</v>
-      </c>
-      <c r="I145" s="31" t="s">
-        <v>213</v>
-      </c>
     </row>
     <row r="146" spans="1:9" ht="15.75">
-      <c r="A146" s="35"/>
-      <c r="B146" s="38"/>
+      <c r="A146" s="97"/>
+      <c r="B146" s="100"/>
       <c r="C146" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="D146" s="38"/>
-      <c r="E146" s="41"/>
-      <c r="F146" s="57"/>
-      <c r="G146" s="47"/>
-      <c r="H146" s="47"/>
-      <c r="I146" s="32"/>
+      <c r="D146" s="100"/>
+      <c r="E146" s="61"/>
+      <c r="F146" s="64"/>
+      <c r="G146" s="67"/>
+      <c r="H146" s="67"/>
+      <c r="I146" s="70"/>
     </row>
     <row r="147" spans="1:9" ht="63">
-      <c r="A147" s="35"/>
-      <c r="B147" s="38"/>
+      <c r="A147" s="97"/>
+      <c r="B147" s="100"/>
       <c r="C147" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="D147" s="38"/>
-      <c r="E147" s="41"/>
-      <c r="F147" s="57"/>
-      <c r="G147" s="47"/>
-      <c r="H147" s="47"/>
-      <c r="I147" s="32"/>
+      <c r="D147" s="100"/>
+      <c r="E147" s="61"/>
+      <c r="F147" s="64"/>
+      <c r="G147" s="67"/>
+      <c r="H147" s="67"/>
+      <c r="I147" s="70"/>
     </row>
     <row r="148" spans="1:9" ht="31.5">
-      <c r="A148" s="50"/>
-      <c r="B148" s="51"/>
+      <c r="A148" s="98"/>
+      <c r="B148" s="101"/>
       <c r="C148" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="D148" s="51"/>
-      <c r="E148" s="52"/>
-      <c r="F148" s="58"/>
-      <c r="G148" s="48"/>
-      <c r="H148" s="48"/>
-      <c r="I148" s="49"/>
+      <c r="D148" s="101"/>
+      <c r="E148" s="62"/>
+      <c r="F148" s="65"/>
+      <c r="G148" s="68"/>
+      <c r="H148" s="68"/>
+      <c r="I148" s="71"/>
     </row>
     <row r="149" spans="1:9">
-      <c r="A149" s="34">
+      <c r="A149" s="96">
         <v>40</v>
       </c>
-      <c r="B149" s="37" t="s">
+      <c r="B149" s="99" t="s">
         <v>150</v>
       </c>
       <c r="C149" s="17"/>
-      <c r="D149" s="37" t="s">
+      <c r="D149" s="99" t="s">
         <v>121</v>
       </c>
-      <c r="E149" s="62" t="s">
+      <c r="E149" s="60" t="s">
         <v>194</v>
       </c>
-      <c r="F149" s="56"/>
-      <c r="G149" s="46"/>
-      <c r="H149" s="46"/>
-      <c r="I149" s="59"/>
+      <c r="F149" s="63"/>
+      <c r="G149" s="66"/>
+      <c r="H149" s="66"/>
+      <c r="I149" s="76"/>
     </row>
     <row r="150" spans="1:9" ht="15.75">
-      <c r="A150" s="35"/>
-      <c r="B150" s="38"/>
+      <c r="A150" s="97"/>
+      <c r="B150" s="100"/>
       <c r="C150" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="D150" s="38"/>
-      <c r="E150" s="41"/>
-      <c r="F150" s="57"/>
-      <c r="G150" s="47"/>
-      <c r="H150" s="47"/>
-      <c r="I150" s="60"/>
+      <c r="D150" s="100"/>
+      <c r="E150" s="61"/>
+      <c r="F150" s="64"/>
+      <c r="G150" s="67"/>
+      <c r="H150" s="67"/>
+      <c r="I150" s="77"/>
     </row>
     <row r="151" spans="1:9" ht="63">
-      <c r="A151" s="35"/>
-      <c r="B151" s="38"/>
+      <c r="A151" s="97"/>
+      <c r="B151" s="100"/>
       <c r="C151" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="D151" s="38"/>
-      <c r="E151" s="41"/>
-      <c r="F151" s="57"/>
-      <c r="G151" s="47"/>
-      <c r="H151" s="47"/>
-      <c r="I151" s="60"/>
+      <c r="D151" s="100"/>
+      <c r="E151" s="61"/>
+      <c r="F151" s="64"/>
+      <c r="G151" s="67"/>
+      <c r="H151" s="67"/>
+      <c r="I151" s="77"/>
     </row>
     <row r="152" spans="1:9" ht="31.5">
-      <c r="A152" s="50"/>
-      <c r="B152" s="51"/>
+      <c r="A152" s="98"/>
+      <c r="B152" s="101"/>
       <c r="C152" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="D152" s="51"/>
-      <c r="E152" s="52"/>
-      <c r="F152" s="58"/>
-      <c r="G152" s="48"/>
-      <c r="H152" s="48"/>
-      <c r="I152" s="61"/>
+      <c r="D152" s="101"/>
+      <c r="E152" s="62"/>
+      <c r="F152" s="65"/>
+      <c r="G152" s="68"/>
+      <c r="H152" s="68"/>
+      <c r="I152" s="78"/>
     </row>
     <row r="153" spans="1:9">
-      <c r="A153" s="34">
+      <c r="A153" s="96">
         <v>41</v>
       </c>
-      <c r="B153" s="37" t="s">
+      <c r="B153" s="99" t="s">
         <v>154</v>
       </c>
       <c r="C153" s="17"/>
-      <c r="D153" s="37" t="s">
+      <c r="D153" s="99" t="s">
         <v>121</v>
       </c>
-      <c r="E153" s="40" t="s">
+      <c r="E153" s="79" t="s">
         <v>193</v>
       </c>
-      <c r="F153" s="63"/>
-      <c r="G153" s="46"/>
-      <c r="H153" s="46"/>
-      <c r="I153" s="59"/>
+      <c r="F153" s="80"/>
+      <c r="G153" s="66"/>
+      <c r="H153" s="66"/>
+      <c r="I153" s="76"/>
     </row>
     <row r="154" spans="1:9" ht="15.75">
-      <c r="A154" s="35"/>
-      <c r="B154" s="38"/>
+      <c r="A154" s="97"/>
+      <c r="B154" s="100"/>
       <c r="C154" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="D154" s="38"/>
-      <c r="E154" s="41"/>
-      <c r="F154" s="64"/>
-      <c r="G154" s="47"/>
-      <c r="H154" s="47"/>
-      <c r="I154" s="60"/>
+      <c r="D154" s="100"/>
+      <c r="E154" s="61"/>
+      <c r="F154" s="81"/>
+      <c r="G154" s="67"/>
+      <c r="H154" s="67"/>
+      <c r="I154" s="77"/>
     </row>
     <row r="155" spans="1:9" ht="15.75">
-      <c r="A155" s="35"/>
-      <c r="B155" s="38"/>
+      <c r="A155" s="97"/>
+      <c r="B155" s="100"/>
       <c r="C155" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="D155" s="38"/>
-      <c r="E155" s="41"/>
-      <c r="F155" s="64"/>
-      <c r="G155" s="47"/>
-      <c r="H155" s="47"/>
-      <c r="I155" s="60"/>
+      <c r="D155" s="100"/>
+      <c r="E155" s="61"/>
+      <c r="F155" s="81"/>
+      <c r="G155" s="67"/>
+      <c r="H155" s="67"/>
+      <c r="I155" s="77"/>
     </row>
     <row r="156" spans="1:9" ht="63">
-      <c r="A156" s="35"/>
-      <c r="B156" s="38"/>
+      <c r="A156" s="97"/>
+      <c r="B156" s="100"/>
       <c r="C156" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="D156" s="38"/>
-      <c r="E156" s="41"/>
-      <c r="F156" s="64"/>
-      <c r="G156" s="47"/>
-      <c r="H156" s="47"/>
-      <c r="I156" s="60"/>
+      <c r="D156" s="100"/>
+      <c r="E156" s="61"/>
+      <c r="F156" s="81"/>
+      <c r="G156" s="67"/>
+      <c r="H156" s="67"/>
+      <c r="I156" s="77"/>
     </row>
     <row r="157" spans="1:9" ht="31.5">
-      <c r="A157" s="35"/>
-      <c r="B157" s="38"/>
+      <c r="A157" s="97"/>
+      <c r="B157" s="100"/>
       <c r="C157" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="D157" s="38"/>
-      <c r="E157" s="41"/>
-      <c r="F157" s="64"/>
-      <c r="G157" s="47"/>
-      <c r="H157" s="47"/>
-      <c r="I157" s="60"/>
+      <c r="D157" s="100"/>
+      <c r="E157" s="61"/>
+      <c r="F157" s="81"/>
+      <c r="G157" s="67"/>
+      <c r="H157" s="67"/>
+      <c r="I157" s="77"/>
     </row>
     <row r="158" spans="1:9" ht="47.25">
-      <c r="A158" s="50"/>
-      <c r="B158" s="51"/>
+      <c r="A158" s="98"/>
+      <c r="B158" s="101"/>
       <c r="C158" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="D158" s="51"/>
-      <c r="E158" s="52"/>
-      <c r="F158" s="65"/>
-      <c r="G158" s="48"/>
-      <c r="H158" s="48"/>
-      <c r="I158" s="61"/>
+      <c r="D158" s="101"/>
+      <c r="E158" s="62"/>
+      <c r="F158" s="82"/>
+      <c r="G158" s="68"/>
+      <c r="H158" s="68"/>
+      <c r="I158" s="78"/>
     </row>
     <row r="159" spans="1:9">
-      <c r="A159" s="34">
+      <c r="A159" s="96">
         <v>42</v>
       </c>
-      <c r="B159" s="37" t="s">
+      <c r="B159" s="99" t="s">
         <v>160</v>
       </c>
       <c r="C159" s="17"/>
-      <c r="D159" s="37" t="s">
+      <c r="D159" s="99" t="s">
         <v>121</v>
       </c>
-      <c r="E159" s="62" t="s">
+      <c r="E159" s="60" t="s">
         <v>194</v>
       </c>
-      <c r="F159" s="68"/>
-      <c r="G159" s="46"/>
-      <c r="H159" s="46"/>
-      <c r="I159" s="59"/>
+      <c r="F159" s="93"/>
+      <c r="G159" s="66"/>
+      <c r="H159" s="66"/>
+      <c r="I159" s="76"/>
     </row>
     <row r="160" spans="1:9" ht="15.75">
-      <c r="A160" s="35"/>
-      <c r="B160" s="38"/>
+      <c r="A160" s="97"/>
+      <c r="B160" s="100"/>
       <c r="C160" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="D160" s="38"/>
-      <c r="E160" s="41"/>
-      <c r="F160" s="69"/>
-      <c r="G160" s="47"/>
-      <c r="H160" s="47"/>
-      <c r="I160" s="60"/>
+      <c r="D160" s="100"/>
+      <c r="E160" s="61"/>
+      <c r="F160" s="94"/>
+      <c r="G160" s="67"/>
+      <c r="H160" s="67"/>
+      <c r="I160" s="77"/>
     </row>
     <row r="161" spans="1:9" ht="47.25">
-      <c r="A161" s="50"/>
-      <c r="B161" s="51"/>
+      <c r="A161" s="98"/>
+      <c r="B161" s="101"/>
       <c r="C161" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="D161" s="51"/>
-      <c r="E161" s="52"/>
-      <c r="F161" s="70"/>
-      <c r="G161" s="48"/>
-      <c r="H161" s="48"/>
-      <c r="I161" s="61"/>
+      <c r="D161" s="101"/>
+      <c r="E161" s="62"/>
+      <c r="F161" s="95"/>
+      <c r="G161" s="68"/>
+      <c r="H161" s="68"/>
+      <c r="I161" s="78"/>
     </row>
     <row r="162" spans="1:9">
-      <c r="A162" s="34">
+      <c r="A162" s="96">
         <v>43</v>
       </c>
-      <c r="B162" s="37" t="s">
+      <c r="B162" s="99" t="s">
         <v>163</v>
       </c>
       <c r="C162" s="17"/>
-      <c r="D162" s="37" t="s">
+      <c r="D162" s="99" t="s">
         <v>121</v>
       </c>
-      <c r="E162" s="62" t="s">
+      <c r="E162" s="60" t="s">
         <v>194</v>
       </c>
-      <c r="F162" s="53"/>
-      <c r="G162" s="46"/>
-      <c r="H162" s="46"/>
-      <c r="I162" s="59"/>
+      <c r="F162" s="87"/>
+      <c r="G162" s="66"/>
+      <c r="H162" s="66"/>
+      <c r="I162" s="76"/>
     </row>
     <row r="163" spans="1:9" ht="15.75">
-      <c r="A163" s="35"/>
-      <c r="B163" s="38"/>
+      <c r="A163" s="97"/>
+      <c r="B163" s="100"/>
       <c r="C163" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="D163" s="38"/>
-      <c r="E163" s="41"/>
-      <c r="F163" s="54"/>
-      <c r="G163" s="47"/>
-      <c r="H163" s="47"/>
-      <c r="I163" s="60"/>
+      <c r="D163" s="100"/>
+      <c r="E163" s="61"/>
+      <c r="F163" s="88"/>
+      <c r="G163" s="67"/>
+      <c r="H163" s="67"/>
+      <c r="I163" s="77"/>
     </row>
     <row r="164" spans="1:9" ht="15.75">
-      <c r="A164" s="50"/>
-      <c r="B164" s="51"/>
+      <c r="A164" s="98"/>
+      <c r="B164" s="101"/>
       <c r="C164" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="D164" s="51"/>
-      <c r="E164" s="52"/>
-      <c r="F164" s="55"/>
-      <c r="G164" s="48"/>
-      <c r="H164" s="48"/>
-      <c r="I164" s="61"/>
+      <c r="D164" s="101"/>
+      <c r="E164" s="62"/>
+      <c r="F164" s="89"/>
+      <c r="G164" s="68"/>
+      <c r="H164" s="68"/>
+      <c r="I164" s="78"/>
     </row>
     <row r="165" spans="1:9">
-      <c r="A165" s="34">
+      <c r="A165" s="96">
         <v>44</v>
       </c>
-      <c r="B165" s="37" t="s">
+      <c r="B165" s="99" t="s">
         <v>166</v>
       </c>
       <c r="C165" s="17"/>
-      <c r="D165" s="37" t="s">
+      <c r="D165" s="99" t="s">
         <v>121</v>
       </c>
-      <c r="E165" s="66" t="s">
+      <c r="E165" s="83" t="s">
         <v>195</v>
       </c>
-      <c r="F165" s="56" t="s">
-        <v>215</v>
-      </c>
-      <c r="G165" s="28"/>
-      <c r="H165" s="46" t="s">
+      <c r="F165" s="63" t="s">
+        <v>214</v>
+      </c>
+      <c r="G165" s="84"/>
+      <c r="H165" s="66" t="s">
         <v>196</v>
       </c>
-      <c r="I165" s="31" t="s">
-        <v>214</v>
+      <c r="I165" s="69" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="166" spans="1:9" ht="15.75">
-      <c r="A166" s="35"/>
-      <c r="B166" s="38"/>
+      <c r="A166" s="97"/>
+      <c r="B166" s="100"/>
       <c r="C166" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="D166" s="38"/>
-      <c r="E166" s="41"/>
-      <c r="F166" s="57"/>
-      <c r="G166" s="29"/>
-      <c r="H166" s="47"/>
-      <c r="I166" s="32"/>
+      <c r="D166" s="100"/>
+      <c r="E166" s="61"/>
+      <c r="F166" s="64"/>
+      <c r="G166" s="85"/>
+      <c r="H166" s="67"/>
+      <c r="I166" s="70"/>
     </row>
     <row r="167" spans="1:9" ht="31.5">
-      <c r="A167" s="35"/>
-      <c r="B167" s="38"/>
+      <c r="A167" s="97"/>
+      <c r="B167" s="100"/>
       <c r="C167" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="D167" s="38"/>
-      <c r="E167" s="41"/>
-      <c r="F167" s="57"/>
-      <c r="G167" s="29"/>
-      <c r="H167" s="47"/>
-      <c r="I167" s="32"/>
+      <c r="D167" s="100"/>
+      <c r="E167" s="61"/>
+      <c r="F167" s="64"/>
+      <c r="G167" s="85"/>
+      <c r="H167" s="67"/>
+      <c r="I167" s="70"/>
     </row>
     <row r="168" spans="1:9" ht="15.75">
-      <c r="A168" s="50"/>
-      <c r="B168" s="51"/>
+      <c r="A168" s="98"/>
+      <c r="B168" s="101"/>
       <c r="C168" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="D168" s="51"/>
-      <c r="E168" s="52"/>
-      <c r="F168" s="58"/>
-      <c r="G168" s="67"/>
-      <c r="H168" s="48"/>
-      <c r="I168" s="49"/>
+      <c r="D168" s="101"/>
+      <c r="E168" s="62"/>
+      <c r="F168" s="65"/>
+      <c r="G168" s="86"/>
+      <c r="H168" s="68"/>
+      <c r="I168" s="71"/>
     </row>
     <row r="169" spans="1:9">
-      <c r="A169" s="34">
+      <c r="A169" s="96">
         <v>45</v>
       </c>
-      <c r="B169" s="37" t="s">
+      <c r="B169" s="99" t="s">
         <v>169</v>
       </c>
       <c r="C169" s="17"/>
-      <c r="D169" s="37" t="s">
+      <c r="D169" s="99" t="s">
         <v>121</v>
       </c>
-      <c r="E169" s="40" t="s">
+      <c r="E169" s="79" t="s">
         <v>193</v>
       </c>
-      <c r="F169" s="63"/>
-      <c r="G169" s="46"/>
-      <c r="H169" s="46"/>
-      <c r="I169" s="59"/>
+      <c r="F169" s="80"/>
+      <c r="G169" s="66"/>
+      <c r="H169" s="66"/>
+      <c r="I169" s="76"/>
     </row>
     <row r="170" spans="1:9" ht="15.75">
-      <c r="A170" s="35"/>
-      <c r="B170" s="38"/>
+      <c r="A170" s="97"/>
+      <c r="B170" s="100"/>
       <c r="C170" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="D170" s="38"/>
-      <c r="E170" s="41"/>
-      <c r="F170" s="64"/>
-      <c r="G170" s="47"/>
-      <c r="H170" s="47"/>
-      <c r="I170" s="60"/>
+      <c r="D170" s="100"/>
+      <c r="E170" s="61"/>
+      <c r="F170" s="81"/>
+      <c r="G170" s="67"/>
+      <c r="H170" s="67"/>
+      <c r="I170" s="77"/>
     </row>
     <row r="171" spans="1:9" ht="78.75">
-      <c r="A171" s="50"/>
-      <c r="B171" s="51"/>
+      <c r="A171" s="98"/>
+      <c r="B171" s="101"/>
       <c r="C171" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="D171" s="51"/>
-      <c r="E171" s="52"/>
-      <c r="F171" s="65"/>
-      <c r="G171" s="48"/>
-      <c r="H171" s="48"/>
-      <c r="I171" s="61"/>
+      <c r="D171" s="101"/>
+      <c r="E171" s="62"/>
+      <c r="F171" s="82"/>
+      <c r="G171" s="68"/>
+      <c r="H171" s="68"/>
+      <c r="I171" s="78"/>
     </row>
     <row r="172" spans="1:9">
-      <c r="A172" s="34">
+      <c r="A172" s="96">
         <v>46</v>
       </c>
-      <c r="B172" s="37" t="s">
+      <c r="B172" s="99" t="s">
         <v>172</v>
       </c>
       <c r="C172" s="17"/>
-      <c r="D172" s="37" t="s">
+      <c r="D172" s="99" t="s">
         <v>121</v>
       </c>
-      <c r="E172" s="62" t="s">
+      <c r="E172" s="60" t="s">
         <v>194</v>
       </c>
-      <c r="F172" s="63"/>
-      <c r="G172" s="46"/>
-      <c r="H172" s="46"/>
-      <c r="I172" s="59"/>
+      <c r="F172" s="80"/>
+      <c r="G172" s="66"/>
+      <c r="H172" s="66"/>
+      <c r="I172" s="76"/>
     </row>
     <row r="173" spans="1:9" ht="15.75">
-      <c r="A173" s="35"/>
-      <c r="B173" s="38"/>
+      <c r="A173" s="97"/>
+      <c r="B173" s="100"/>
       <c r="C173" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="D173" s="38"/>
-      <c r="E173" s="41"/>
-      <c r="F173" s="64"/>
-      <c r="G173" s="47"/>
-      <c r="H173" s="47"/>
-      <c r="I173" s="60"/>
+      <c r="D173" s="100"/>
+      <c r="E173" s="61"/>
+      <c r="F173" s="81"/>
+      <c r="G173" s="67"/>
+      <c r="H173" s="67"/>
+      <c r="I173" s="77"/>
     </row>
     <row r="174" spans="1:9" ht="47.25">
-      <c r="A174" s="50"/>
-      <c r="B174" s="51"/>
+      <c r="A174" s="98"/>
+      <c r="B174" s="101"/>
       <c r="C174" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="D174" s="51"/>
-      <c r="E174" s="52"/>
-      <c r="F174" s="65"/>
-      <c r="G174" s="48"/>
-      <c r="H174" s="48"/>
-      <c r="I174" s="61"/>
+      <c r="D174" s="101"/>
+      <c r="E174" s="62"/>
+      <c r="F174" s="82"/>
+      <c r="G174" s="68"/>
+      <c r="H174" s="68"/>
+      <c r="I174" s="78"/>
     </row>
     <row r="175" spans="1:9">
-      <c r="A175" s="34">
+      <c r="A175" s="96">
         <v>47</v>
       </c>
-      <c r="B175" s="37" t="s">
+      <c r="B175" s="99" t="s">
         <v>175</v>
       </c>
       <c r="C175" s="17"/>
-      <c r="D175" s="37" t="s">
+      <c r="D175" s="99" t="s">
         <v>121</v>
       </c>
-      <c r="E175" s="62" t="s">
+      <c r="E175" s="60" t="s">
         <v>194</v>
       </c>
-      <c r="F175" s="53"/>
-      <c r="G175" s="46"/>
-      <c r="H175" s="46"/>
-      <c r="I175" s="59"/>
+      <c r="F175" s="87"/>
+      <c r="G175" s="66"/>
+      <c r="H175" s="66"/>
+      <c r="I175" s="76"/>
     </row>
     <row r="176" spans="1:9" ht="15.75">
-      <c r="A176" s="35"/>
-      <c r="B176" s="38"/>
+      <c r="A176" s="97"/>
+      <c r="B176" s="100"/>
       <c r="C176" s="18" t="s">
         <v>176</v>
       </c>
-      <c r="D176" s="38"/>
-      <c r="E176" s="41"/>
-      <c r="F176" s="54"/>
-      <c r="G176" s="47"/>
-      <c r="H176" s="47"/>
-      <c r="I176" s="60"/>
+      <c r="D176" s="100"/>
+      <c r="E176" s="61"/>
+      <c r="F176" s="88"/>
+      <c r="G176" s="67"/>
+      <c r="H176" s="67"/>
+      <c r="I176" s="77"/>
     </row>
     <row r="177" spans="1:9" ht="31.5">
-      <c r="A177" s="50"/>
-      <c r="B177" s="51"/>
+      <c r="A177" s="98"/>
+      <c r="B177" s="101"/>
       <c r="C177" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="D177" s="51"/>
-      <c r="E177" s="52"/>
-      <c r="F177" s="55"/>
-      <c r="G177" s="48"/>
-      <c r="H177" s="48"/>
-      <c r="I177" s="61"/>
+      <c r="D177" s="101"/>
+      <c r="E177" s="62"/>
+      <c r="F177" s="89"/>
+      <c r="G177" s="68"/>
+      <c r="H177" s="68"/>
+      <c r="I177" s="78"/>
     </row>
     <row r="178" spans="1:9">
-      <c r="A178" s="34">
+      <c r="A178" s="96">
         <v>48</v>
       </c>
-      <c r="B178" s="37" t="s">
+      <c r="B178" s="99" t="s">
         <v>178</v>
       </c>
       <c r="C178" s="17"/>
-      <c r="D178" s="37" t="s">
+      <c r="D178" s="99" t="s">
         <v>121</v>
       </c>
-      <c r="E178" s="40" t="s">
+      <c r="E178" s="79" t="s">
         <v>193</v>
       </c>
-      <c r="F178" s="56"/>
-      <c r="G178" s="46"/>
-      <c r="H178" s="46"/>
-      <c r="I178" s="31"/>
+      <c r="F178" s="63"/>
+      <c r="G178" s="66"/>
+      <c r="H178" s="66"/>
+      <c r="I178" s="69"/>
     </row>
     <row r="179" spans="1:9" ht="15.75">
-      <c r="A179" s="35"/>
-      <c r="B179" s="38"/>
+      <c r="A179" s="97"/>
+      <c r="B179" s="100"/>
       <c r="C179" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="D179" s="38"/>
-      <c r="E179" s="41"/>
-      <c r="F179" s="57"/>
-      <c r="G179" s="47"/>
-      <c r="H179" s="47"/>
-      <c r="I179" s="32"/>
+      <c r="D179" s="100"/>
+      <c r="E179" s="61"/>
+      <c r="F179" s="64"/>
+      <c r="G179" s="67"/>
+      <c r="H179" s="67"/>
+      <c r="I179" s="70"/>
     </row>
     <row r="180" spans="1:9" ht="47.25">
-      <c r="A180" s="35"/>
-      <c r="B180" s="38"/>
+      <c r="A180" s="97"/>
+      <c r="B180" s="100"/>
       <c r="C180" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="D180" s="38"/>
-      <c r="E180" s="41"/>
-      <c r="F180" s="57"/>
-      <c r="G180" s="47"/>
-      <c r="H180" s="47"/>
-      <c r="I180" s="32"/>
+      <c r="D180" s="100"/>
+      <c r="E180" s="61"/>
+      <c r="F180" s="64"/>
+      <c r="G180" s="67"/>
+      <c r="H180" s="67"/>
+      <c r="I180" s="70"/>
     </row>
     <row r="181" spans="1:9" ht="15.75">
-      <c r="A181" s="50"/>
-      <c r="B181" s="51"/>
+      <c r="A181" s="98"/>
+      <c r="B181" s="101"/>
       <c r="C181" s="20"/>
-      <c r="D181" s="51"/>
-      <c r="E181" s="52"/>
-      <c r="F181" s="58"/>
-      <c r="G181" s="48"/>
-      <c r="H181" s="48"/>
-      <c r="I181" s="49"/>
+      <c r="D181" s="101"/>
+      <c r="E181" s="62"/>
+      <c r="F181" s="65"/>
+      <c r="G181" s="68"/>
+      <c r="H181" s="68"/>
+      <c r="I181" s="71"/>
     </row>
     <row r="182" spans="1:9">
-      <c r="A182" s="34">
+      <c r="A182" s="96">
         <v>49</v>
       </c>
-      <c r="B182" s="37" t="s">
+      <c r="B182" s="99" t="s">
         <v>181</v>
       </c>
       <c r="C182" s="17"/>
-      <c r="D182" s="37" t="s">
+      <c r="D182" s="99" t="s">
         <v>121</v>
       </c>
-      <c r="E182" s="40" t="s">
+      <c r="E182" s="79" t="s">
         <v>193</v>
       </c>
-      <c r="F182" s="53"/>
-      <c r="G182" s="46"/>
-      <c r="H182" s="46"/>
-      <c r="I182" s="31"/>
+      <c r="F182" s="87"/>
+      <c r="G182" s="66"/>
+      <c r="H182" s="66"/>
+      <c r="I182" s="69"/>
     </row>
     <row r="183" spans="1:9" ht="15.75">
-      <c r="A183" s="35"/>
-      <c r="B183" s="38"/>
+      <c r="A183" s="97"/>
+      <c r="B183" s="100"/>
       <c r="C183" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="D183" s="38"/>
-      <c r="E183" s="41"/>
-      <c r="F183" s="54"/>
-      <c r="G183" s="47"/>
-      <c r="H183" s="47"/>
-      <c r="I183" s="32"/>
+      <c r="D183" s="100"/>
+      <c r="E183" s="61"/>
+      <c r="F183" s="88"/>
+      <c r="G183" s="67"/>
+      <c r="H183" s="67"/>
+      <c r="I183" s="70"/>
     </row>
     <row r="184" spans="1:9" ht="63">
-      <c r="A184" s="35"/>
-      <c r="B184" s="38"/>
+      <c r="A184" s="97"/>
+      <c r="B184" s="100"/>
       <c r="C184" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="D184" s="38"/>
-      <c r="E184" s="41"/>
-      <c r="F184" s="54"/>
-      <c r="G184" s="47"/>
-      <c r="H184" s="47"/>
-      <c r="I184" s="32"/>
+      <c r="D184" s="100"/>
+      <c r="E184" s="61"/>
+      <c r="F184" s="88"/>
+      <c r="G184" s="67"/>
+      <c r="H184" s="67"/>
+      <c r="I184" s="70"/>
     </row>
     <row r="185" spans="1:9" ht="15.75">
-      <c r="A185" s="35"/>
-      <c r="B185" s="38"/>
+      <c r="A185" s="97"/>
+      <c r="B185" s="100"/>
       <c r="C185" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="D185" s="38"/>
-      <c r="E185" s="41"/>
-      <c r="F185" s="54"/>
-      <c r="G185" s="47"/>
-      <c r="H185" s="47"/>
-      <c r="I185" s="32"/>
+      <c r="D185" s="100"/>
+      <c r="E185" s="61"/>
+      <c r="F185" s="88"/>
+      <c r="G185" s="67"/>
+      <c r="H185" s="67"/>
+      <c r="I185" s="70"/>
     </row>
     <row r="186" spans="1:9" ht="31.5">
-      <c r="A186" s="35"/>
-      <c r="B186" s="38"/>
+      <c r="A186" s="97"/>
+      <c r="B186" s="100"/>
       <c r="C186" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="D186" s="38"/>
-      <c r="E186" s="41"/>
-      <c r="F186" s="54"/>
-      <c r="G186" s="47"/>
-      <c r="H186" s="47"/>
-      <c r="I186" s="32"/>
+      <c r="D186" s="100"/>
+      <c r="E186" s="61"/>
+      <c r="F186" s="88"/>
+      <c r="G186" s="67"/>
+      <c r="H186" s="67"/>
+      <c r="I186" s="70"/>
     </row>
     <row r="187" spans="1:9" ht="31.5">
-      <c r="A187" s="50"/>
-      <c r="B187" s="51"/>
+      <c r="A187" s="98"/>
+      <c r="B187" s="101"/>
       <c r="C187" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="D187" s="51"/>
-      <c r="E187" s="52"/>
-      <c r="F187" s="55"/>
-      <c r="G187" s="48"/>
-      <c r="H187" s="48"/>
-      <c r="I187" s="49"/>
+      <c r="D187" s="101"/>
+      <c r="E187" s="62"/>
+      <c r="F187" s="89"/>
+      <c r="G187" s="68"/>
+      <c r="H187" s="68"/>
+      <c r="I187" s="71"/>
     </row>
     <row r="188" spans="1:9">
-      <c r="A188" s="34">
+      <c r="A188" s="96">
         <v>50</v>
       </c>
-      <c r="B188" s="37" t="s">
+      <c r="B188" s="99" t="s">
         <v>187</v>
       </c>
       <c r="C188" s="17"/>
-      <c r="D188" s="37" t="s">
+      <c r="D188" s="99" t="s">
         <v>121</v>
       </c>
-      <c r="E188" s="40" t="s">
+      <c r="E188" s="79" t="s">
         <v>193</v>
       </c>
-      <c r="F188" s="43"/>
-      <c r="G188" s="28"/>
-      <c r="H188" s="28"/>
-      <c r="I188" s="31"/>
+      <c r="F188" s="102"/>
+      <c r="G188" s="84"/>
+      <c r="H188" s="84"/>
+      <c r="I188" s="69"/>
     </row>
     <row r="189" spans="1:9" ht="15.75">
-      <c r="A189" s="35"/>
-      <c r="B189" s="38"/>
+      <c r="A189" s="97"/>
+      <c r="B189" s="100"/>
       <c r="C189" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="D189" s="38"/>
-      <c r="E189" s="41"/>
-      <c r="F189" s="44"/>
-      <c r="G189" s="29"/>
-      <c r="H189" s="29"/>
-      <c r="I189" s="32"/>
+      <c r="D189" s="100"/>
+      <c r="E189" s="61"/>
+      <c r="F189" s="103"/>
+      <c r="G189" s="85"/>
+      <c r="H189" s="85"/>
+      <c r="I189" s="70"/>
     </row>
     <row r="190" spans="1:9" ht="48" thickBot="1">
-      <c r="A190" s="36"/>
-      <c r="B190" s="39"/>
+      <c r="A190" s="107"/>
+      <c r="B190" s="108"/>
       <c r="C190" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="D190" s="39"/>
-      <c r="E190" s="42"/>
-      <c r="F190" s="45"/>
-      <c r="G190" s="30"/>
-      <c r="H190" s="30"/>
-      <c r="I190" s="33"/>
+      <c r="D190" s="108"/>
+      <c r="E190" s="109"/>
+      <c r="F190" s="110"/>
+      <c r="G190" s="105"/>
+      <c r="H190" s="105"/>
+      <c r="I190" s="106"/>
     </row>
   </sheetData>
   <autoFilter ref="A10:I190">
     <filterColumn colId="4" showButton="0"/>
   </autoFilter>
   <mergeCells count="421">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="A12:A21"/>
-    <mergeCell ref="B12:B21"/>
-    <mergeCell ref="D12:D21"/>
-    <mergeCell ref="E12:E21"/>
-    <mergeCell ref="F12:F21"/>
-    <mergeCell ref="G12:G21"/>
-    <mergeCell ref="H12:H21"/>
-    <mergeCell ref="I12:I21"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H22:H27"/>
-    <mergeCell ref="I22:I27"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="E28:E30"/>
-    <mergeCell ref="F28:F30"/>
-    <mergeCell ref="G28:G30"/>
-    <mergeCell ref="H28:H30"/>
-    <mergeCell ref="I28:I30"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="D22:D27"/>
-    <mergeCell ref="E22:E27"/>
-    <mergeCell ref="F22:F27"/>
-    <mergeCell ref="G22:G27"/>
-    <mergeCell ref="H31:H34"/>
-    <mergeCell ref="I31:I34"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="E35:E37"/>
-    <mergeCell ref="F35:F37"/>
-    <mergeCell ref="G35:G37"/>
-    <mergeCell ref="H35:H37"/>
-    <mergeCell ref="I35:I37"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="D31:D34"/>
-    <mergeCell ref="E31:E34"/>
-    <mergeCell ref="F31:F34"/>
-    <mergeCell ref="G31:G34"/>
-    <mergeCell ref="H38:H41"/>
-    <mergeCell ref="I38:I41"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="E42:E44"/>
-    <mergeCell ref="F42:F44"/>
-    <mergeCell ref="G42:G44"/>
-    <mergeCell ref="H42:H44"/>
-    <mergeCell ref="I42:I44"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="D38:D41"/>
-    <mergeCell ref="E38:E41"/>
-    <mergeCell ref="F38:F41"/>
-    <mergeCell ref="G38:G41"/>
-    <mergeCell ref="H45:H47"/>
-    <mergeCell ref="I45:I47"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="D48:D50"/>
-    <mergeCell ref="E48:E50"/>
-    <mergeCell ref="F48:F50"/>
-    <mergeCell ref="G48:G50"/>
-    <mergeCell ref="H48:H50"/>
-    <mergeCell ref="I48:I50"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="F45:F47"/>
-    <mergeCell ref="G45:G47"/>
-    <mergeCell ref="H51:H53"/>
-    <mergeCell ref="I51:I53"/>
-    <mergeCell ref="A54:A56"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="D54:D56"/>
-    <mergeCell ref="E54:E56"/>
-    <mergeCell ref="F54:F56"/>
-    <mergeCell ref="G54:G56"/>
-    <mergeCell ref="H54:H56"/>
-    <mergeCell ref="I54:I56"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="E51:E53"/>
-    <mergeCell ref="F51:F53"/>
-    <mergeCell ref="G51:G53"/>
-    <mergeCell ref="H57:H59"/>
-    <mergeCell ref="I57:I59"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="B60:B62"/>
-    <mergeCell ref="D60:D62"/>
-    <mergeCell ref="E60:E62"/>
-    <mergeCell ref="F60:F62"/>
-    <mergeCell ref="G60:G62"/>
-    <mergeCell ref="H60:H62"/>
-    <mergeCell ref="I60:I62"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="D57:D59"/>
-    <mergeCell ref="E57:E59"/>
-    <mergeCell ref="F57:F59"/>
-    <mergeCell ref="G57:G59"/>
-    <mergeCell ref="H63:H67"/>
-    <mergeCell ref="I63:I67"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="D68:D70"/>
-    <mergeCell ref="E68:E70"/>
-    <mergeCell ref="F68:F70"/>
-    <mergeCell ref="G68:G70"/>
-    <mergeCell ref="H68:H70"/>
-    <mergeCell ref="I68:I70"/>
-    <mergeCell ref="A63:A67"/>
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="D63:D67"/>
-    <mergeCell ref="E63:E67"/>
-    <mergeCell ref="F63:F67"/>
-    <mergeCell ref="G63:G67"/>
-    <mergeCell ref="H71:H74"/>
-    <mergeCell ref="I71:I74"/>
-    <mergeCell ref="A75:A77"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="D75:D77"/>
-    <mergeCell ref="E75:E77"/>
-    <mergeCell ref="F75:F77"/>
-    <mergeCell ref="G75:G77"/>
-    <mergeCell ref="H75:H77"/>
-    <mergeCell ref="I75:I77"/>
-    <mergeCell ref="A71:A74"/>
-    <mergeCell ref="B71:B74"/>
-    <mergeCell ref="D71:D74"/>
-    <mergeCell ref="E71:E74"/>
-    <mergeCell ref="F71:F74"/>
-    <mergeCell ref="G71:G74"/>
-    <mergeCell ref="H78:H80"/>
-    <mergeCell ref="I78:I80"/>
-    <mergeCell ref="A81:A83"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="D81:D83"/>
-    <mergeCell ref="E81:E83"/>
-    <mergeCell ref="F81:F83"/>
-    <mergeCell ref="G81:G83"/>
-    <mergeCell ref="H81:H83"/>
-    <mergeCell ref="I81:I83"/>
-    <mergeCell ref="A78:A80"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="D78:D80"/>
-    <mergeCell ref="E78:E80"/>
-    <mergeCell ref="F78:F80"/>
-    <mergeCell ref="G78:G80"/>
-    <mergeCell ref="H84:H86"/>
-    <mergeCell ref="I84:I86"/>
-    <mergeCell ref="A87:A89"/>
-    <mergeCell ref="B87:B89"/>
-    <mergeCell ref="D87:D89"/>
-    <mergeCell ref="E87:E89"/>
-    <mergeCell ref="F87:F89"/>
-    <mergeCell ref="G87:G89"/>
-    <mergeCell ref="H87:H89"/>
-    <mergeCell ref="I87:I89"/>
-    <mergeCell ref="A84:A86"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="D84:D86"/>
-    <mergeCell ref="E84:E86"/>
-    <mergeCell ref="F84:F86"/>
-    <mergeCell ref="G84:G86"/>
-    <mergeCell ref="H90:H92"/>
-    <mergeCell ref="I90:I92"/>
-    <mergeCell ref="A93:A95"/>
-    <mergeCell ref="B93:B95"/>
-    <mergeCell ref="D93:D95"/>
-    <mergeCell ref="E93:E95"/>
-    <mergeCell ref="F93:F95"/>
-    <mergeCell ref="G93:G95"/>
-    <mergeCell ref="H93:H95"/>
-    <mergeCell ref="I93:I95"/>
-    <mergeCell ref="A90:A92"/>
-    <mergeCell ref="B90:B92"/>
-    <mergeCell ref="D90:D92"/>
-    <mergeCell ref="E90:E92"/>
-    <mergeCell ref="F90:F92"/>
-    <mergeCell ref="G90:G92"/>
-    <mergeCell ref="H96:H98"/>
-    <mergeCell ref="I96:I98"/>
-    <mergeCell ref="A99:A101"/>
-    <mergeCell ref="B99:B101"/>
-    <mergeCell ref="D99:D101"/>
-    <mergeCell ref="E99:E101"/>
-    <mergeCell ref="F99:F101"/>
-    <mergeCell ref="G99:G101"/>
-    <mergeCell ref="H99:H101"/>
-    <mergeCell ref="I99:I101"/>
-    <mergeCell ref="A96:A98"/>
-    <mergeCell ref="B96:B98"/>
-    <mergeCell ref="D96:D98"/>
-    <mergeCell ref="E96:E98"/>
-    <mergeCell ref="F96:F98"/>
-    <mergeCell ref="G96:G98"/>
-    <mergeCell ref="H102:H104"/>
-    <mergeCell ref="I102:I104"/>
-    <mergeCell ref="A105:A107"/>
-    <mergeCell ref="B105:B107"/>
-    <mergeCell ref="D105:D107"/>
-    <mergeCell ref="E105:E107"/>
-    <mergeCell ref="F105:F107"/>
-    <mergeCell ref="G105:G107"/>
-    <mergeCell ref="H105:H107"/>
-    <mergeCell ref="I105:I107"/>
-    <mergeCell ref="A102:A104"/>
-    <mergeCell ref="B102:B104"/>
-    <mergeCell ref="D102:D104"/>
-    <mergeCell ref="E102:E104"/>
-    <mergeCell ref="F102:F104"/>
-    <mergeCell ref="G102:G104"/>
-    <mergeCell ref="H108:H110"/>
-    <mergeCell ref="I108:I110"/>
-    <mergeCell ref="A111:A113"/>
-    <mergeCell ref="B111:B113"/>
-    <mergeCell ref="D111:D113"/>
-    <mergeCell ref="E111:E113"/>
-    <mergeCell ref="F111:F113"/>
-    <mergeCell ref="G111:G113"/>
-    <mergeCell ref="H111:H113"/>
-    <mergeCell ref="I111:I113"/>
-    <mergeCell ref="A108:A110"/>
-    <mergeCell ref="B108:B110"/>
-    <mergeCell ref="D108:D110"/>
-    <mergeCell ref="E108:E110"/>
-    <mergeCell ref="F108:F110"/>
-    <mergeCell ref="G108:G110"/>
-    <mergeCell ref="H114:H116"/>
-    <mergeCell ref="I114:I116"/>
-    <mergeCell ref="A117:A120"/>
-    <mergeCell ref="B117:B120"/>
-    <mergeCell ref="D117:D120"/>
-    <mergeCell ref="E117:E120"/>
-    <mergeCell ref="F117:F120"/>
-    <mergeCell ref="G117:G120"/>
-    <mergeCell ref="H117:H120"/>
-    <mergeCell ref="I117:I120"/>
-    <mergeCell ref="A114:A116"/>
-    <mergeCell ref="B114:B116"/>
-    <mergeCell ref="D114:D116"/>
-    <mergeCell ref="E114:E116"/>
-    <mergeCell ref="F114:F116"/>
-    <mergeCell ref="G114:G116"/>
-    <mergeCell ref="H121:H123"/>
-    <mergeCell ref="I121:I123"/>
-    <mergeCell ref="A124:A126"/>
-    <mergeCell ref="B124:B126"/>
-    <mergeCell ref="D124:D126"/>
-    <mergeCell ref="E124:E126"/>
-    <mergeCell ref="F124:F126"/>
-    <mergeCell ref="G124:G126"/>
-    <mergeCell ref="H124:H126"/>
-    <mergeCell ref="I124:I126"/>
-    <mergeCell ref="A121:A123"/>
-    <mergeCell ref="B121:B123"/>
-    <mergeCell ref="D121:D123"/>
-    <mergeCell ref="E121:E123"/>
-    <mergeCell ref="F121:F123"/>
-    <mergeCell ref="G121:G123"/>
-    <mergeCell ref="H127:H129"/>
-    <mergeCell ref="I127:I129"/>
-    <mergeCell ref="A130:A132"/>
-    <mergeCell ref="B130:B132"/>
-    <mergeCell ref="D130:D132"/>
-    <mergeCell ref="E130:E132"/>
-    <mergeCell ref="F130:F132"/>
-    <mergeCell ref="G130:G132"/>
-    <mergeCell ref="H130:H132"/>
-    <mergeCell ref="I130:I132"/>
-    <mergeCell ref="A127:A129"/>
-    <mergeCell ref="B127:B129"/>
-    <mergeCell ref="D127:D129"/>
-    <mergeCell ref="E127:E129"/>
-    <mergeCell ref="F127:F129"/>
-    <mergeCell ref="G127:G129"/>
-    <mergeCell ref="H133:H135"/>
-    <mergeCell ref="I133:I135"/>
-    <mergeCell ref="A136:A140"/>
-    <mergeCell ref="B136:B140"/>
-    <mergeCell ref="D136:D140"/>
-    <mergeCell ref="E136:E140"/>
-    <mergeCell ref="F136:F140"/>
-    <mergeCell ref="G136:G140"/>
-    <mergeCell ref="H136:H140"/>
-    <mergeCell ref="I136:I140"/>
-    <mergeCell ref="A133:A135"/>
-    <mergeCell ref="B133:B135"/>
-    <mergeCell ref="D133:D135"/>
-    <mergeCell ref="E133:E135"/>
-    <mergeCell ref="F133:F135"/>
-    <mergeCell ref="G133:G135"/>
-    <mergeCell ref="H141:H144"/>
-    <mergeCell ref="I141:I144"/>
-    <mergeCell ref="A145:A148"/>
-    <mergeCell ref="B145:B148"/>
-    <mergeCell ref="D145:D148"/>
-    <mergeCell ref="E145:E148"/>
-    <mergeCell ref="F145:F148"/>
-    <mergeCell ref="G145:G148"/>
-    <mergeCell ref="H145:H148"/>
-    <mergeCell ref="I145:I148"/>
-    <mergeCell ref="A141:A144"/>
-    <mergeCell ref="B141:B144"/>
-    <mergeCell ref="D141:D144"/>
-    <mergeCell ref="E141:E144"/>
-    <mergeCell ref="F141:F144"/>
-    <mergeCell ref="G141:G144"/>
-    <mergeCell ref="H149:H152"/>
-    <mergeCell ref="I149:I152"/>
-    <mergeCell ref="A153:A158"/>
-    <mergeCell ref="B153:B158"/>
-    <mergeCell ref="D153:D158"/>
-    <mergeCell ref="E153:E158"/>
-    <mergeCell ref="F153:F158"/>
-    <mergeCell ref="G153:G158"/>
-    <mergeCell ref="H153:H158"/>
-    <mergeCell ref="I153:I158"/>
-    <mergeCell ref="A149:A152"/>
-    <mergeCell ref="B149:B152"/>
-    <mergeCell ref="D149:D152"/>
-    <mergeCell ref="E149:E152"/>
-    <mergeCell ref="F149:F152"/>
-    <mergeCell ref="G149:G152"/>
-    <mergeCell ref="H159:H161"/>
-    <mergeCell ref="I159:I161"/>
-    <mergeCell ref="A162:A164"/>
-    <mergeCell ref="B162:B164"/>
-    <mergeCell ref="D162:D164"/>
-    <mergeCell ref="E162:E164"/>
-    <mergeCell ref="F162:F164"/>
-    <mergeCell ref="G162:G164"/>
-    <mergeCell ref="H162:H164"/>
-    <mergeCell ref="I162:I164"/>
-    <mergeCell ref="A159:A161"/>
-    <mergeCell ref="B159:B161"/>
-    <mergeCell ref="D159:D161"/>
-    <mergeCell ref="E159:E161"/>
-    <mergeCell ref="F159:F161"/>
-    <mergeCell ref="G159:G161"/>
-    <mergeCell ref="H165:H168"/>
-    <mergeCell ref="I165:I168"/>
-    <mergeCell ref="A169:A171"/>
-    <mergeCell ref="B169:B171"/>
-    <mergeCell ref="D169:D171"/>
-    <mergeCell ref="E169:E171"/>
-    <mergeCell ref="F169:F171"/>
-    <mergeCell ref="G169:G171"/>
-    <mergeCell ref="H169:H171"/>
-    <mergeCell ref="I169:I171"/>
-    <mergeCell ref="A165:A168"/>
-    <mergeCell ref="B165:B168"/>
-    <mergeCell ref="D165:D168"/>
-    <mergeCell ref="E165:E168"/>
-    <mergeCell ref="F165:F168"/>
-    <mergeCell ref="G165:G168"/>
-    <mergeCell ref="H172:H174"/>
-    <mergeCell ref="I172:I174"/>
-    <mergeCell ref="A175:A177"/>
-    <mergeCell ref="B175:B177"/>
-    <mergeCell ref="D175:D177"/>
-    <mergeCell ref="E175:E177"/>
-    <mergeCell ref="F175:F177"/>
-    <mergeCell ref="G175:G177"/>
-    <mergeCell ref="H175:H177"/>
-    <mergeCell ref="I175:I177"/>
-    <mergeCell ref="A172:A174"/>
-    <mergeCell ref="B172:B174"/>
-    <mergeCell ref="D172:D174"/>
-    <mergeCell ref="E172:E174"/>
-    <mergeCell ref="F172:F174"/>
-    <mergeCell ref="G172:G174"/>
     <mergeCell ref="H188:H190"/>
     <mergeCell ref="I188:I190"/>
     <mergeCell ref="A188:A190"/>
@@ -5136,6 +4762,403 @@
     <mergeCell ref="E178:E181"/>
     <mergeCell ref="F178:F181"/>
     <mergeCell ref="G178:G181"/>
+    <mergeCell ref="H172:H174"/>
+    <mergeCell ref="I172:I174"/>
+    <mergeCell ref="A175:A177"/>
+    <mergeCell ref="B175:B177"/>
+    <mergeCell ref="D175:D177"/>
+    <mergeCell ref="E175:E177"/>
+    <mergeCell ref="F175:F177"/>
+    <mergeCell ref="G175:G177"/>
+    <mergeCell ref="H175:H177"/>
+    <mergeCell ref="I175:I177"/>
+    <mergeCell ref="A172:A174"/>
+    <mergeCell ref="B172:B174"/>
+    <mergeCell ref="D172:D174"/>
+    <mergeCell ref="E172:E174"/>
+    <mergeCell ref="F172:F174"/>
+    <mergeCell ref="G172:G174"/>
+    <mergeCell ref="H165:H168"/>
+    <mergeCell ref="I165:I168"/>
+    <mergeCell ref="A169:A171"/>
+    <mergeCell ref="B169:B171"/>
+    <mergeCell ref="D169:D171"/>
+    <mergeCell ref="E169:E171"/>
+    <mergeCell ref="F169:F171"/>
+    <mergeCell ref="G169:G171"/>
+    <mergeCell ref="H169:H171"/>
+    <mergeCell ref="I169:I171"/>
+    <mergeCell ref="A165:A168"/>
+    <mergeCell ref="B165:B168"/>
+    <mergeCell ref="D165:D168"/>
+    <mergeCell ref="E165:E168"/>
+    <mergeCell ref="F165:F168"/>
+    <mergeCell ref="G165:G168"/>
+    <mergeCell ref="H159:H161"/>
+    <mergeCell ref="I159:I161"/>
+    <mergeCell ref="A162:A164"/>
+    <mergeCell ref="B162:B164"/>
+    <mergeCell ref="D162:D164"/>
+    <mergeCell ref="E162:E164"/>
+    <mergeCell ref="F162:F164"/>
+    <mergeCell ref="G162:G164"/>
+    <mergeCell ref="H162:H164"/>
+    <mergeCell ref="I162:I164"/>
+    <mergeCell ref="A159:A161"/>
+    <mergeCell ref="B159:B161"/>
+    <mergeCell ref="D159:D161"/>
+    <mergeCell ref="E159:E161"/>
+    <mergeCell ref="F159:F161"/>
+    <mergeCell ref="G159:G161"/>
+    <mergeCell ref="H149:H152"/>
+    <mergeCell ref="I149:I152"/>
+    <mergeCell ref="A153:A158"/>
+    <mergeCell ref="B153:B158"/>
+    <mergeCell ref="D153:D158"/>
+    <mergeCell ref="E153:E158"/>
+    <mergeCell ref="F153:F158"/>
+    <mergeCell ref="G153:G158"/>
+    <mergeCell ref="H153:H158"/>
+    <mergeCell ref="I153:I158"/>
+    <mergeCell ref="A149:A152"/>
+    <mergeCell ref="B149:B152"/>
+    <mergeCell ref="D149:D152"/>
+    <mergeCell ref="E149:E152"/>
+    <mergeCell ref="F149:F152"/>
+    <mergeCell ref="G149:G152"/>
+    <mergeCell ref="H141:H144"/>
+    <mergeCell ref="I141:I144"/>
+    <mergeCell ref="A145:A148"/>
+    <mergeCell ref="B145:B148"/>
+    <mergeCell ref="D145:D148"/>
+    <mergeCell ref="E145:E148"/>
+    <mergeCell ref="F145:F148"/>
+    <mergeCell ref="G145:G148"/>
+    <mergeCell ref="H145:H148"/>
+    <mergeCell ref="I145:I148"/>
+    <mergeCell ref="A141:A144"/>
+    <mergeCell ref="B141:B144"/>
+    <mergeCell ref="D141:D144"/>
+    <mergeCell ref="E141:E144"/>
+    <mergeCell ref="F141:F144"/>
+    <mergeCell ref="G141:G144"/>
+    <mergeCell ref="H133:H135"/>
+    <mergeCell ref="I133:I135"/>
+    <mergeCell ref="A136:A140"/>
+    <mergeCell ref="B136:B140"/>
+    <mergeCell ref="D136:D140"/>
+    <mergeCell ref="E136:E140"/>
+    <mergeCell ref="F136:F140"/>
+    <mergeCell ref="G136:G140"/>
+    <mergeCell ref="H136:H140"/>
+    <mergeCell ref="I136:I140"/>
+    <mergeCell ref="A133:A135"/>
+    <mergeCell ref="B133:B135"/>
+    <mergeCell ref="D133:D135"/>
+    <mergeCell ref="E133:E135"/>
+    <mergeCell ref="F133:F135"/>
+    <mergeCell ref="G133:G135"/>
+    <mergeCell ref="H127:H129"/>
+    <mergeCell ref="I127:I129"/>
+    <mergeCell ref="A130:A132"/>
+    <mergeCell ref="B130:B132"/>
+    <mergeCell ref="D130:D132"/>
+    <mergeCell ref="E130:E132"/>
+    <mergeCell ref="F130:F132"/>
+    <mergeCell ref="G130:G132"/>
+    <mergeCell ref="H130:H132"/>
+    <mergeCell ref="I130:I132"/>
+    <mergeCell ref="A127:A129"/>
+    <mergeCell ref="B127:B129"/>
+    <mergeCell ref="D127:D129"/>
+    <mergeCell ref="E127:E129"/>
+    <mergeCell ref="F127:F129"/>
+    <mergeCell ref="G127:G129"/>
+    <mergeCell ref="H121:H123"/>
+    <mergeCell ref="I121:I123"/>
+    <mergeCell ref="A124:A126"/>
+    <mergeCell ref="B124:B126"/>
+    <mergeCell ref="D124:D126"/>
+    <mergeCell ref="E124:E126"/>
+    <mergeCell ref="F124:F126"/>
+    <mergeCell ref="G124:G126"/>
+    <mergeCell ref="H124:H126"/>
+    <mergeCell ref="I124:I126"/>
+    <mergeCell ref="A121:A123"/>
+    <mergeCell ref="B121:B123"/>
+    <mergeCell ref="D121:D123"/>
+    <mergeCell ref="E121:E123"/>
+    <mergeCell ref="F121:F123"/>
+    <mergeCell ref="G121:G123"/>
+    <mergeCell ref="H114:H116"/>
+    <mergeCell ref="I114:I116"/>
+    <mergeCell ref="A117:A120"/>
+    <mergeCell ref="B117:B120"/>
+    <mergeCell ref="D117:D120"/>
+    <mergeCell ref="E117:E120"/>
+    <mergeCell ref="F117:F120"/>
+    <mergeCell ref="G117:G120"/>
+    <mergeCell ref="H117:H120"/>
+    <mergeCell ref="I117:I120"/>
+    <mergeCell ref="A114:A116"/>
+    <mergeCell ref="B114:B116"/>
+    <mergeCell ref="D114:D116"/>
+    <mergeCell ref="E114:E116"/>
+    <mergeCell ref="F114:F116"/>
+    <mergeCell ref="G114:G116"/>
+    <mergeCell ref="H108:H110"/>
+    <mergeCell ref="I108:I110"/>
+    <mergeCell ref="A111:A113"/>
+    <mergeCell ref="B111:B113"/>
+    <mergeCell ref="D111:D113"/>
+    <mergeCell ref="E111:E113"/>
+    <mergeCell ref="F111:F113"/>
+    <mergeCell ref="G111:G113"/>
+    <mergeCell ref="H111:H113"/>
+    <mergeCell ref="I111:I113"/>
+    <mergeCell ref="A108:A110"/>
+    <mergeCell ref="B108:B110"/>
+    <mergeCell ref="D108:D110"/>
+    <mergeCell ref="E108:E110"/>
+    <mergeCell ref="F108:F110"/>
+    <mergeCell ref="G108:G110"/>
+    <mergeCell ref="H102:H104"/>
+    <mergeCell ref="I102:I104"/>
+    <mergeCell ref="A105:A107"/>
+    <mergeCell ref="B105:B107"/>
+    <mergeCell ref="D105:D107"/>
+    <mergeCell ref="E105:E107"/>
+    <mergeCell ref="F105:F107"/>
+    <mergeCell ref="G105:G107"/>
+    <mergeCell ref="H105:H107"/>
+    <mergeCell ref="I105:I107"/>
+    <mergeCell ref="A102:A104"/>
+    <mergeCell ref="B102:B104"/>
+    <mergeCell ref="D102:D104"/>
+    <mergeCell ref="E102:E104"/>
+    <mergeCell ref="F102:F104"/>
+    <mergeCell ref="G102:G104"/>
+    <mergeCell ref="H96:H98"/>
+    <mergeCell ref="I96:I98"/>
+    <mergeCell ref="A99:A101"/>
+    <mergeCell ref="B99:B101"/>
+    <mergeCell ref="D99:D101"/>
+    <mergeCell ref="E99:E101"/>
+    <mergeCell ref="F99:F101"/>
+    <mergeCell ref="G99:G101"/>
+    <mergeCell ref="H99:H101"/>
+    <mergeCell ref="I99:I101"/>
+    <mergeCell ref="A96:A98"/>
+    <mergeCell ref="B96:B98"/>
+    <mergeCell ref="D96:D98"/>
+    <mergeCell ref="E96:E98"/>
+    <mergeCell ref="F96:F98"/>
+    <mergeCell ref="G96:G98"/>
+    <mergeCell ref="H90:H92"/>
+    <mergeCell ref="I90:I92"/>
+    <mergeCell ref="A93:A95"/>
+    <mergeCell ref="B93:B95"/>
+    <mergeCell ref="D93:D95"/>
+    <mergeCell ref="E93:E95"/>
+    <mergeCell ref="F93:F95"/>
+    <mergeCell ref="G93:G95"/>
+    <mergeCell ref="H93:H95"/>
+    <mergeCell ref="I93:I95"/>
+    <mergeCell ref="A90:A92"/>
+    <mergeCell ref="B90:B92"/>
+    <mergeCell ref="D90:D92"/>
+    <mergeCell ref="E90:E92"/>
+    <mergeCell ref="F90:F92"/>
+    <mergeCell ref="G90:G92"/>
+    <mergeCell ref="H84:H86"/>
+    <mergeCell ref="I84:I86"/>
+    <mergeCell ref="A87:A89"/>
+    <mergeCell ref="B87:B89"/>
+    <mergeCell ref="D87:D89"/>
+    <mergeCell ref="E87:E89"/>
+    <mergeCell ref="F87:F89"/>
+    <mergeCell ref="G87:G89"/>
+    <mergeCell ref="H87:H89"/>
+    <mergeCell ref="I87:I89"/>
+    <mergeCell ref="A84:A86"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="D84:D86"/>
+    <mergeCell ref="E84:E86"/>
+    <mergeCell ref="F84:F86"/>
+    <mergeCell ref="G84:G86"/>
+    <mergeCell ref="H78:H80"/>
+    <mergeCell ref="I78:I80"/>
+    <mergeCell ref="A81:A83"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="D81:D83"/>
+    <mergeCell ref="E81:E83"/>
+    <mergeCell ref="F81:F83"/>
+    <mergeCell ref="G81:G83"/>
+    <mergeCell ref="H81:H83"/>
+    <mergeCell ref="I81:I83"/>
+    <mergeCell ref="A78:A80"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="D78:D80"/>
+    <mergeCell ref="E78:E80"/>
+    <mergeCell ref="F78:F80"/>
+    <mergeCell ref="G78:G80"/>
+    <mergeCell ref="H71:H74"/>
+    <mergeCell ref="I71:I74"/>
+    <mergeCell ref="A75:A77"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="D75:D77"/>
+    <mergeCell ref="E75:E77"/>
+    <mergeCell ref="F75:F77"/>
+    <mergeCell ref="G75:G77"/>
+    <mergeCell ref="H75:H77"/>
+    <mergeCell ref="I75:I77"/>
+    <mergeCell ref="A71:A74"/>
+    <mergeCell ref="B71:B74"/>
+    <mergeCell ref="D71:D74"/>
+    <mergeCell ref="E71:E74"/>
+    <mergeCell ref="F71:F74"/>
+    <mergeCell ref="G71:G74"/>
+    <mergeCell ref="H63:H67"/>
+    <mergeCell ref="I63:I67"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="D68:D70"/>
+    <mergeCell ref="E68:E70"/>
+    <mergeCell ref="F68:F70"/>
+    <mergeCell ref="G68:G70"/>
+    <mergeCell ref="H68:H70"/>
+    <mergeCell ref="I68:I70"/>
+    <mergeCell ref="A63:A67"/>
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="D63:D67"/>
+    <mergeCell ref="E63:E67"/>
+    <mergeCell ref="F63:F67"/>
+    <mergeCell ref="G63:G67"/>
+    <mergeCell ref="H57:H59"/>
+    <mergeCell ref="I57:I59"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="D60:D62"/>
+    <mergeCell ref="E60:E62"/>
+    <mergeCell ref="F60:F62"/>
+    <mergeCell ref="G60:G62"/>
+    <mergeCell ref="H60:H62"/>
+    <mergeCell ref="I60:I62"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="D57:D59"/>
+    <mergeCell ref="E57:E59"/>
+    <mergeCell ref="F57:F59"/>
+    <mergeCell ref="G57:G59"/>
+    <mergeCell ref="H51:H53"/>
+    <mergeCell ref="I51:I53"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="D54:D56"/>
+    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="F54:F56"/>
+    <mergeCell ref="G54:G56"/>
+    <mergeCell ref="H54:H56"/>
+    <mergeCell ref="I54:I56"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="F51:F53"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="H45:H47"/>
+    <mergeCell ref="I45:I47"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="D48:D50"/>
+    <mergeCell ref="E48:E50"/>
+    <mergeCell ref="F48:F50"/>
+    <mergeCell ref="G48:G50"/>
+    <mergeCell ref="H48:H50"/>
+    <mergeCell ref="I48:I50"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="F45:F47"/>
+    <mergeCell ref="G45:G47"/>
+    <mergeCell ref="H38:H41"/>
+    <mergeCell ref="I38:I41"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="F42:F44"/>
+    <mergeCell ref="G42:G44"/>
+    <mergeCell ref="H42:H44"/>
+    <mergeCell ref="I42:I44"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="D38:D41"/>
+    <mergeCell ref="E38:E41"/>
+    <mergeCell ref="F38:F41"/>
+    <mergeCell ref="G38:G41"/>
+    <mergeCell ref="H31:H34"/>
+    <mergeCell ref="I31:I34"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="E35:E37"/>
+    <mergeCell ref="F35:F37"/>
+    <mergeCell ref="G35:G37"/>
+    <mergeCell ref="H35:H37"/>
+    <mergeCell ref="I35:I37"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="D31:D34"/>
+    <mergeCell ref="E31:E34"/>
+    <mergeCell ref="F31:F34"/>
+    <mergeCell ref="G31:G34"/>
+    <mergeCell ref="H22:H27"/>
+    <mergeCell ref="I22:I27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="F28:F30"/>
+    <mergeCell ref="G28:G30"/>
+    <mergeCell ref="H28:H30"/>
+    <mergeCell ref="I28:I30"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="D22:D27"/>
+    <mergeCell ref="E22:E27"/>
+    <mergeCell ref="F22:F27"/>
+    <mergeCell ref="G22:G27"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="A12:A21"/>
+    <mergeCell ref="B12:B21"/>
+    <mergeCell ref="D12:D21"/>
+    <mergeCell ref="E12:E21"/>
+    <mergeCell ref="F12:F21"/>
+    <mergeCell ref="G12:G21"/>
+    <mergeCell ref="H12:H21"/>
+    <mergeCell ref="I12:I21"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C4" r:id="rId1"/>
@@ -5164,6 +5187,11 @@
     <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1044" r:id="rId21"/>
     <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1047" r:id="rId22"/>
     <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1048" r:id="rId23"/>
+    <oleObject progId="Bitmap Image" dvAspect="DVASPECT_ICON" shapeId="1049" r:id="rId24"/>
+    <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1050" r:id="rId25"/>
+    <oleObject progId="Bitmap Image" dvAspect="DVASPECT_ICON" shapeId="1051" r:id="rId26"/>
+    <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1053" r:id="rId27"/>
+    <oleObject progId="Bitmap Image" dvAspect="DVASPECT_ICON" shapeId="1054" r:id="rId28"/>
   </oleObjects>
 </worksheet>
 </file>
